--- a/docs/EPOS_DCAT-AP_Vocabulary_and_Specification.xlsx
+++ b/docs/EPOS_DCAT-AP_Vocabulary_and_Specification.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielebailo/git/EPOS-DCAT-AP/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24560" yWindow="3560" windowWidth="21220" windowHeight="20380" activeTab="2"/>
+    <workbookView xWindow="24555" yWindow="3555" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entity&amp;Properties&amp;Roles" sheetId="27" r:id="rId1"/>
@@ -24,11 +19,8 @@
     <sheet name="eposSoftware" sheetId="22" r:id="rId10"/>
     <sheet name="eposModelCode" sheetId="23" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -3999,6 +3991,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4009,43 +4036,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4071,6 +4063,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4082,36 +4104,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4497,13 +4489,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.5" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4514,7 +4506,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>109</v>
       </c>
@@ -4522,7 +4514,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>135</v>
       </c>
@@ -4530,7 +4522,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>116</v>
       </c>
@@ -4538,7 +4530,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>8</v>
       </c>
@@ -4546,7 +4538,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>112</v>
       </c>
@@ -4554,7 +4546,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>113</v>
       </c>
@@ -4562,7 +4554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>115</v>
       </c>
@@ -4570,7 +4562,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>128</v>
       </c>
@@ -4578,7 +4570,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="192" t="s">
         <v>397</v>
@@ -4596,11 +4588,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="361" t="s">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="357" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="363" t="s">
+      <c r="B13" s="359" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="195" t="s">
@@ -4609,22 +4601,22 @@
       <c r="D13" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="365" t="s">
+      <c r="E13" s="361" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="367"/>
-      <c r="B14" s="364"/>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="358"/>
+      <c r="B14" s="360"/>
       <c r="C14" s="195" t="s">
         <v>370</v>
       </c>
       <c r="D14" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="366"/>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="362"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="205" t="s">
         <v>98</v>
       </c>
@@ -4641,7 +4633,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="205" t="s">
         <v>99</v>
       </c>
@@ -4658,7 +4650,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A17" s="205" t="s">
         <v>100</v>
       </c>
@@ -4675,7 +4667,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A18" s="205" t="s">
         <v>72</v>
       </c>
@@ -4692,7 +4684,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A19" s="207" t="s">
         <v>118</v>
       </c>
@@ -4709,11 +4701,11 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="372" t="s">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="367" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="370" t="s">
+      <c r="B20" s="365" t="s">
         <v>241</v>
       </c>
       <c r="C20" s="202" t="s">
@@ -4726,9 +4718,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="373"/>
-      <c r="B21" s="374"/>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="368"/>
+      <c r="B21" s="369"/>
       <c r="C21" s="355" t="s">
         <v>506</v>
       </c>
@@ -4739,7 +4731,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A22" s="207" t="s">
         <v>201</v>
       </c>
@@ -4756,7 +4748,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A23" s="205" t="s">
         <v>8</v>
       </c>
@@ -4773,11 +4765,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="368" t="s">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="370" t="s">
+      <c r="B24" s="365" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="198" t="s">
@@ -4790,9 +4782,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="369"/>
-      <c r="B25" s="371"/>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="364"/>
+      <c r="B25" s="366"/>
       <c r="C25" s="198" t="s">
         <v>374</v>
       </c>
@@ -4803,11 +4795,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="361" t="s">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="357" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="363" t="s">
+      <c r="B26" s="359" t="s">
         <v>315</v>
       </c>
       <c r="C26" s="198" t="s">
@@ -4816,22 +4808,22 @@
       <c r="D26" s="200" t="s">
         <v>374</v>
       </c>
-      <c r="E26" s="365" t="s">
+      <c r="E26" s="361" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="362"/>
-      <c r="B27" s="364"/>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="374"/>
+      <c r="B27" s="360"/>
       <c r="C27" s="198" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="203" t="s">
         <v>374</v>
       </c>
-      <c r="E27" s="366"/>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="362"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A28" s="208" t="s">
         <v>102</v>
       </c>
@@ -4848,7 +4840,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="211" t="s">
         <v>328</v>
       </c>
@@ -4865,8 +4857,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="192" t="s">
         <v>390</v>
       </c>
@@ -4883,7 +4875,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="207" t="s">
         <v>80</v>
       </c>
@@ -4900,7 +4892,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="207" t="s">
         <v>81</v>
       </c>
@@ -4917,7 +4909,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="207" t="s">
         <v>84</v>
       </c>
@@ -4934,7 +4926,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="207" t="s">
         <v>85</v>
       </c>
@@ -4951,7 +4943,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="207" t="s">
         <v>86</v>
       </c>
@@ -4968,11 +4960,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="359" t="s">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="372" t="s">
         <v>408</v>
       </c>
-      <c r="B38" s="357" t="s">
+      <c r="B38" s="370" t="s">
         <v>398</v>
       </c>
       <c r="C38" s="258" t="s">
@@ -4983,9 +4975,9 @@
       </c>
       <c r="E38" s="259"/>
     </row>
-    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="360"/>
-      <c r="B39" s="358"/>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="373"/>
+      <c r="B39" s="371"/>
       <c r="C39" s="213" t="s">
         <v>370</v>
       </c>
@@ -4996,6 +4988,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
@@ -5003,11 +5000,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5024,12 +5016,12 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5043,7 +5035,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>110</v>
       </c>
@@ -5068,7 +5060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -5079,7 +5071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>56</v>
       </c>
@@ -5090,7 +5082,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>57</v>
       </c>
@@ -5101,18 +5093,18 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>111</v>
       </c>
@@ -5123,12 +5115,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
@@ -5139,7 +5131,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>62</v>
       </c>
@@ -5150,7 +5142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -5182,11 +5174,11 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5200,7 +5192,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -5225,7 +5217,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -5236,7 +5228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>56</v>
       </c>
@@ -5247,7 +5239,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>57</v>
       </c>
@@ -5258,7 +5250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>58</v>
       </c>
@@ -5269,7 +5261,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>59</v>
       </c>
@@ -5278,7 +5270,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>111</v>
       </c>
@@ -5289,7 +5281,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>60</v>
       </c>
@@ -5297,7 +5289,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
@@ -5308,7 +5300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>62</v>
       </c>
@@ -5319,7 +5311,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -5352,18 +5344,18 @@
       <selection activeCell="I27" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="227" customWidth="1"/>
-    <col min="9" max="9" width="182.6640625" customWidth="1"/>
-    <col min="10" max="10" width="33.5" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="227" customWidth="1"/>
+    <col min="9" max="9" width="182.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -5377,7 +5369,7 @@
       <c r="E1" s="227"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>109</v>
       </c>
@@ -5388,21 +5380,21 @@
       <c r="E2" s="227"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="E3" s="227"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
         <v>499</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>454</v>
       </c>
@@ -5460,7 +5452,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="277" t="s">
         <v>1</v>
       </c>
@@ -5489,7 +5481,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="277" t="s">
         <v>2</v>
       </c>
@@ -5518,7 +5510,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="278" t="s">
         <v>3</v>
       </c>
@@ -5547,7 +5539,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="278" t="s">
         <v>4</v>
       </c>
@@ -5576,7 +5568,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="278" t="s">
         <v>5</v>
       </c>
@@ -5605,7 +5597,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="277" t="s">
         <v>131</v>
       </c>
@@ -5633,7 +5625,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="277" t="s">
         <v>114</v>
       </c>
@@ -5660,7 +5652,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>11</v>
       </c>
@@ -5689,7 +5681,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>12</v>
       </c>
@@ -5718,7 +5710,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>13</v>
       </c>
@@ -5747,7 +5739,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>14</v>
       </c>
@@ -5770,7 +5762,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>15</v>
       </c>
@@ -5799,7 +5791,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A19" s="277" t="s">
         <v>16</v>
       </c>
@@ -5828,7 +5820,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="277" t="s">
         <v>17</v>
       </c>
@@ -5857,7 +5849,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="277" t="s">
         <v>18</v>
       </c>
@@ -5880,7 +5872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>19</v>
       </c>
@@ -5903,7 +5895,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A23" s="277" t="s">
         <v>20</v>
       </c>
@@ -5926,7 +5918,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>21</v>
       </c>
@@ -5949,7 +5941,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A25" s="277" t="s">
         <v>22</v>
       </c>
@@ -5972,7 +5964,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A26" s="277" t="s">
         <v>23</v>
       </c>
@@ -5995,7 +5987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A27" s="70" t="s">
         <v>279</v>
       </c>
@@ -6018,7 +6010,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A28" s="281" t="s">
         <v>459</v>
       </c>
@@ -6041,7 +6033,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="281" t="s">
         <v>462</v>
       </c>
@@ -6064,7 +6056,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="277" t="s">
         <v>24</v>
       </c>
@@ -6087,7 +6079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
         <v>25</v>
       </c>
@@ -6110,7 +6102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="40"/>
@@ -6121,8 +6113,8 @@
       <c r="H32" s="231"/>
       <c r="I32" s="91"/>
     </row>
-    <row r="33" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>395</v>
       </c>
@@ -6132,7 +6124,7 @@
       <c r="E34" s="227"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>401</v>
       </c>
@@ -6142,13 +6134,13 @@
       <c r="E35" s="227"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="235"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="236"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -6159,7 +6151,7 @@
       <c r="H37" s="232"/>
       <c r="I37" s="91"/>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>41</v>
       </c>
@@ -6182,7 +6174,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
         <v>42</v>
       </c>
@@ -6205,7 +6197,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>43</v>
       </c>
@@ -6228,7 +6220,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>16</v>
       </c>
@@ -6251,7 +6243,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>44</v>
       </c>
@@ -6274,7 +6266,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>45</v>
       </c>
@@ -6297,7 +6289,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
         <v>46</v>
       </c>
@@ -6310,7 +6302,7 @@
       <c r="H44" s="228"/>
       <c r="I44" s="84"/>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
         <v>47</v>
       </c>
@@ -6333,7 +6325,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="57" t="s">
         <v>48</v>
       </c>
@@ -6356,7 +6348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6366,7 +6358,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="233"/>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6376,7 +6368,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="233"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6386,7 +6378,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="233"/>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6396,7 +6388,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="233"/>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6406,7 +6398,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="233"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6416,7 +6408,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="233"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6426,7 +6418,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="233"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6436,7 +6428,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="233"/>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6446,7 +6438,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="233"/>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6456,7 +6448,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="233"/>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6466,7 +6458,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="233"/>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6476,7 +6468,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="233"/>
     </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6486,7 +6478,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="233"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6496,7 +6488,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="233"/>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6506,7 +6498,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="233"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6516,13 +6508,13 @@
       <c r="G62" s="2"/>
       <c r="H62" s="234"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6544,20 +6536,20 @@
   </sheetPr>
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="227" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="227" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="227" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="227" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="227" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="227" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="227" customWidth="1"/>
-    <col min="9" max="9" width="134.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="227" customWidth="1"/>
+    <col min="9" max="9" width="134.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -6571,7 +6563,7 @@
       <c r="D1" s="382"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>135</v>
       </c>
@@ -6582,21 +6574,21 @@
       <c r="D2" s="384"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="335"/>
       <c r="C3" s="335"/>
       <c r="D3" s="335"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
         <v>499</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>456</v>
       </c>
@@ -6654,7 +6646,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="265" t="s">
         <v>1</v>
       </c>
@@ -6677,13 +6669,13 @@
         <v>416</v>
       </c>
       <c r="H7" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I7" s="257" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="265" t="s">
         <v>2</v>
       </c>
@@ -6706,13 +6698,13 @@
         <v>416</v>
       </c>
       <c r="H8" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I8" s="257" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="266" t="s">
         <v>49</v>
       </c>
@@ -6799,7 +6791,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="265" t="s">
         <v>131</v>
       </c>
@@ -6826,7 +6818,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="265" t="s">
         <v>114</v>
       </c>
@@ -6876,13 +6868,13 @@
         <v>420</v>
       </c>
       <c r="H14" s="229" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I14" s="257" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="114" t="s">
         <v>13</v>
       </c>
@@ -6998,7 +6990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A19" s="265" t="s">
         <v>365</v>
       </c>
@@ -7027,7 +7019,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A20" s="243" t="s">
         <v>459</v>
       </c>
@@ -7050,7 +7042,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A21" s="243" t="s">
         <v>463</v>
       </c>
@@ -7073,7 +7065,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="265" t="s">
         <v>52</v>
       </c>
@@ -7102,7 +7094,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="265" t="s">
         <v>24</v>
       </c>
@@ -7131,7 +7123,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
         <v>25</v>
       </c>
@@ -7160,7 +7152,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="243" t="s">
         <v>494</v>
       </c>
@@ -7183,7 +7175,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="243" t="s">
         <v>491</v>
       </c>
@@ -7206,7 +7198,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="265" t="s">
         <v>364</v>
       </c>
@@ -7235,7 +7227,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="243" t="s">
         <v>403</v>
       </c>
@@ -7254,7 +7246,7 @@
       </c>
       <c r="I28" s="346"/>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="270" t="s">
         <v>64</v>
       </c>
@@ -7279,7 +7271,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="270" t="s">
         <v>465</v>
       </c>
@@ -7302,7 +7294,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="329" t="s">
         <v>216</v>
       </c>
@@ -7327,7 +7319,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="329" t="s">
         <v>468</v>
       </c>
@@ -7350,7 +7342,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="329" t="s">
         <v>469</v>
       </c>
@@ -7373,7 +7365,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="270" t="s">
         <v>190</v>
       </c>
@@ -7402,7 +7394,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="334" t="s">
         <v>215</v>
       </c>
@@ -7431,7 +7423,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="239"/>
       <c r="C36" s="239"/>
@@ -7441,7 +7433,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="239"/>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="239"/>
       <c r="C37" s="239"/>
@@ -7451,7 +7443,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="239"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="240"/>
       <c r="C38" s="240"/>
@@ -7461,7 +7453,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="240"/>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="267"/>
       <c r="C39" s="267"/>
@@ -7471,7 +7463,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="241"/>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
       <c r="B40" s="267"/>
       <c r="C40" s="267"/>
@@ -7481,7 +7473,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="241"/>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
       <c r="B41" s="267"/>
       <c r="C41" s="267"/>
@@ -7491,7 +7483,7 @@
       <c r="G41" s="380"/>
       <c r="H41" s="241"/>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
       <c r="B42" s="267"/>
       <c r="C42" s="267"/>
@@ -7501,7 +7493,7 @@
       <c r="G42" s="379"/>
       <c r="H42" s="240"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
       <c r="B43" s="267"/>
       <c r="C43" s="267"/>
@@ -7511,7 +7503,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="241"/>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="268"/>
       <c r="C46" s="268"/>
@@ -7521,7 +7513,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="242"/>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="268"/>
       <c r="C47" s="268"/>
@@ -7531,7 +7523,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="242"/>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="268"/>
       <c r="C48" s="268"/>
@@ -7541,7 +7533,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="242"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="268"/>
       <c r="C49" s="268"/>
@@ -7551,7 +7543,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="242"/>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="268"/>
       <c r="C50" s="268"/>
@@ -7561,7 +7553,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="242"/>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="268"/>
       <c r="C51" s="268"/>
@@ -7571,7 +7563,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="242"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="268"/>
       <c r="C52" s="268"/>
@@ -7581,7 +7573,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="242"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="268"/>
       <c r="C53" s="268"/>
@@ -7591,7 +7583,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="242"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="268"/>
       <c r="C54" s="268"/>
@@ -7601,7 +7593,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="242"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="269"/>
       <c r="C55" s="269"/>
@@ -7611,7 +7603,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="242"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="269"/>
       <c r="C56" s="269"/>
@@ -7621,7 +7613,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="242"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="269"/>
       <c r="C57" s="269"/>
@@ -7631,7 +7623,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="242"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="269"/>
       <c r="C58" s="269"/>
@@ -7641,7 +7633,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="242"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="269"/>
       <c r="C59" s="269"/>
@@ -7651,7 +7643,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="242"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="269"/>
       <c r="C60" s="269"/>
@@ -7661,7 +7653,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="242"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="269"/>
       <c r="C61" s="269"/>
@@ -7671,7 +7663,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="242"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="269"/>
       <c r="C62" s="269"/>
@@ -7681,7 +7673,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="242"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="269"/>
       <c r="C63" s="269"/>
@@ -7691,7 +7683,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="242"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="269"/>
       <c r="C64" s="269"/>
@@ -7701,7 +7693,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="242"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="269"/>
       <c r="C65" s="269"/>
@@ -7711,7 +7703,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="242"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="269"/>
       <c r="C66" s="269"/>
@@ -7721,7 +7713,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="242"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="269"/>
       <c r="C67" s="269"/>
@@ -7731,7 +7723,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="242"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="269"/>
       <c r="C68" s="269"/>
@@ -7741,7 +7733,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="242"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="269"/>
       <c r="C69" s="269"/>
@@ -7751,7 +7743,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="242"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="269"/>
       <c r="C70" s="269"/>
@@ -7761,7 +7753,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="242"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="269"/>
       <c r="C71" s="269"/>
@@ -7771,7 +7763,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="242"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="269"/>
       <c r="C72" s="269"/>
@@ -7781,7 +7773,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="242"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="269"/>
       <c r="C73" s="269"/>
@@ -7791,7 +7783,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="242"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="269"/>
       <c r="C74" s="269"/>
@@ -7801,7 +7793,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="242"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="269"/>
       <c r="C75" s="269"/>
@@ -7811,7 +7803,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="242"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="269"/>
       <c r="C76" s="269"/>
@@ -7821,7 +7813,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="242"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="269"/>
       <c r="C77" s="269"/>
@@ -7831,7 +7823,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="242"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="269"/>
       <c r="C78" s="269"/>
@@ -7841,7 +7833,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="242"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="269"/>
       <c r="C79" s="269"/>
@@ -7851,7 +7843,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="242"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="269"/>
       <c r="C80" s="269"/>
@@ -7861,7 +7853,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="242"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="269"/>
       <c r="C81" s="269"/>
@@ -7871,7 +7863,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="242"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="269"/>
       <c r="C82" s="269"/>
@@ -7881,7 +7873,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="242"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="269"/>
       <c r="C83" s="269"/>
@@ -7891,7 +7883,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="242"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="269"/>
       <c r="C84" s="269"/>
@@ -7901,7 +7893,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="242"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="269"/>
       <c r="C85" s="269"/>
@@ -7911,7 +7903,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="242"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="269"/>
       <c r="C86" s="269"/>
@@ -7921,7 +7913,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="242"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="269"/>
       <c r="C87" s="269"/>
@@ -7931,7 +7923,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="242"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="269"/>
       <c r="C88" s="269"/>
@@ -7941,7 +7933,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="242"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="269"/>
       <c r="C89" s="269"/>
@@ -7951,7 +7943,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="242"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="269"/>
       <c r="C90" s="269"/>
@@ -7961,7 +7953,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="242"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="269"/>
       <c r="C91" s="269"/>
@@ -7971,7 +7963,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="242"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="269"/>
       <c r="C92" s="269"/>
@@ -7981,7 +7973,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="242"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="269"/>
       <c r="C93" s="269"/>
@@ -7991,7 +7983,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="242"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="269"/>
       <c r="C94" s="269"/>
@@ -8001,7 +7993,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="242"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="269"/>
       <c r="C95" s="269"/>
@@ -8011,7 +8003,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="242"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="269"/>
       <c r="C96" s="269"/>
@@ -8021,7 +8013,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="242"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="269"/>
       <c r="C97" s="269"/>
@@ -8031,7 +8023,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="242"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="269"/>
       <c r="C98" s="269"/>
@@ -8041,7 +8033,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="242"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="269"/>
       <c r="C99" s="269"/>
@@ -8051,7 +8043,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="242"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="269"/>
       <c r="C100" s="269"/>
@@ -8061,7 +8053,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="242"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="269"/>
       <c r="C101" s="269"/>
@@ -8071,7 +8063,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="242"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="269"/>
       <c r="C102" s="269"/>
@@ -8081,7 +8073,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="242"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="269"/>
       <c r="C103" s="269"/>
@@ -8091,7 +8083,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="242"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="269"/>
       <c r="C104" s="269"/>
@@ -8101,7 +8093,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="242"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="269"/>
       <c r="C105" s="269"/>
@@ -8111,7 +8103,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="242"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="269"/>
       <c r="C106" s="269"/>
@@ -8121,7 +8113,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="242"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="269"/>
       <c r="C107" s="269"/>
@@ -8131,7 +8123,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="242"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="269"/>
       <c r="C108" s="269"/>
@@ -8141,7 +8133,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="242"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="269"/>
       <c r="C109" s="269"/>
@@ -8151,7 +8143,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="242"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="269"/>
       <c r="C110" s="269"/>
@@ -8161,7 +8153,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="242"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="269"/>
       <c r="C111" s="269"/>
@@ -8171,7 +8163,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="242"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="269"/>
       <c r="C112" s="269"/>
@@ -8181,7 +8173,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="242"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="269"/>
       <c r="C113" s="269"/>
@@ -8191,7 +8183,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="242"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="269"/>
       <c r="C114" s="269"/>
@@ -8201,7 +8193,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="242"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="269"/>
       <c r="C115" s="269"/>
@@ -8211,7 +8203,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="242"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="269"/>
       <c r="C116" s="269"/>
@@ -8221,7 +8213,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="242"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="269"/>
       <c r="C117" s="269"/>
@@ -8231,7 +8223,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="242"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="269"/>
       <c r="C118" s="269"/>
@@ -8241,7 +8233,7 @@
       <c r="G118" s="8"/>
       <c r="H118" s="242"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="269"/>
       <c r="C119" s="269"/>
@@ -8251,7 +8243,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="242"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="269"/>
       <c r="C120" s="269"/>
@@ -8261,7 +8253,7 @@
       <c r="G120" s="8"/>
       <c r="H120" s="242"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="269"/>
       <c r="C121" s="269"/>
@@ -8271,7 +8263,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="242"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="269"/>
       <c r="C122" s="269"/>
@@ -8281,7 +8273,7 @@
       <c r="G122" s="8"/>
       <c r="H122" s="242"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="269"/>
       <c r="C123" s="269"/>
@@ -8291,7 +8283,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="242"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="269"/>
       <c r="C124" s="269"/>
@@ -8301,7 +8293,7 @@
       <c r="G124" s="8"/>
       <c r="H124" s="242"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="269"/>
       <c r="C125" s="269"/>
@@ -8311,7 +8303,7 @@
       <c r="G125" s="8"/>
       <c r="H125" s="242"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="269"/>
       <c r="C126" s="269"/>
@@ -8321,7 +8313,7 @@
       <c r="G126" s="8"/>
       <c r="H126" s="242"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="269"/>
       <c r="C127" s="269"/>
@@ -8331,7 +8323,7 @@
       <c r="G127" s="8"/>
       <c r="H127" s="242"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="269"/>
       <c r="C128" s="269"/>
@@ -8341,7 +8333,7 @@
       <c r="G128" s="8"/>
       <c r="H128" s="242"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="269"/>
       <c r="C129" s="269"/>
@@ -8351,7 +8343,7 @@
       <c r="G129" s="8"/>
       <c r="H129" s="242"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="269"/>
       <c r="C130" s="269"/>
@@ -8361,7 +8353,7 @@
       <c r="G130" s="8"/>
       <c r="H130" s="242"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="269"/>
       <c r="C131" s="269"/>
@@ -8371,7 +8363,7 @@
       <c r="G131" s="8"/>
       <c r="H131" s="242"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="269"/>
       <c r="C132" s="269"/>
@@ -8381,7 +8373,7 @@
       <c r="G132" s="8"/>
       <c r="H132" s="242"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="269"/>
       <c r="C133" s="269"/>
@@ -8391,7 +8383,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="242"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="269"/>
       <c r="C134" s="269"/>
@@ -8401,7 +8393,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="242"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="269"/>
       <c r="C135" s="269"/>
@@ -8411,7 +8403,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="242"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="269"/>
       <c r="C136" s="269"/>
@@ -8421,7 +8413,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="242"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="269"/>
       <c r="C137" s="269"/>
@@ -8431,7 +8423,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="242"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="269"/>
       <c r="C138" s="269"/>
@@ -8441,7 +8433,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="242"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="269"/>
       <c r="C139" s="269"/>
@@ -8451,7 +8443,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="242"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="269"/>
       <c r="C140" s="269"/>
@@ -8461,7 +8453,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="242"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="269"/>
       <c r="C141" s="269"/>
@@ -8471,7 +8463,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="242"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="269"/>
       <c r="C142" s="269"/>
@@ -8481,7 +8473,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="242"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="269"/>
       <c r="C143" s="269"/>
@@ -8491,7 +8483,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="242"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="269"/>
       <c r="C144" s="269"/>
@@ -8501,7 +8493,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="242"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="269"/>
       <c r="C145" s="269"/>
@@ -8511,7 +8503,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="242"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="269"/>
       <c r="C146" s="269"/>
@@ -8521,7 +8513,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="242"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="269"/>
       <c r="C147" s="269"/>
@@ -8531,7 +8523,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="242"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="269"/>
       <c r="C148" s="269"/>
@@ -8541,7 +8533,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="242"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="269"/>
       <c r="C149" s="269"/>
@@ -8551,7 +8543,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="242"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="269"/>
       <c r="C150" s="269"/>
@@ -8561,7 +8553,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="242"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="269"/>
       <c r="C151" s="269"/>
@@ -8571,7 +8563,7 @@
       <c r="G151" s="8"/>
       <c r="H151" s="242"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="269"/>
       <c r="C152" s="269"/>
@@ -8581,7 +8573,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="242"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="269"/>
       <c r="C153" s="269"/>
@@ -8591,7 +8583,7 @@
       <c r="G153" s="8"/>
       <c r="H153" s="242"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="269"/>
       <c r="C154" s="269"/>
@@ -8601,7 +8593,7 @@
       <c r="G154" s="8"/>
       <c r="H154" s="242"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="269"/>
       <c r="C155" s="269"/>
@@ -8611,7 +8603,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="242"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="269"/>
       <c r="C156" s="269"/>
@@ -8621,7 +8613,7 @@
       <c r="G156" s="8"/>
       <c r="H156" s="242"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="269"/>
       <c r="C157" s="269"/>
@@ -8631,7 +8623,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="242"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="269"/>
       <c r="C158" s="269"/>
@@ -8641,7 +8633,7 @@
       <c r="G158" s="8"/>
       <c r="H158" s="242"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="269"/>
       <c r="C159" s="269"/>
@@ -8651,7 +8643,7 @@
       <c r="G159" s="8"/>
       <c r="H159" s="242"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="269"/>
       <c r="C160" s="269"/>
@@ -8661,7 +8653,7 @@
       <c r="G160" s="8"/>
       <c r="H160" s="242"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="269"/>
       <c r="C161" s="269"/>
@@ -8671,7 +8663,7 @@
       <c r="G161" s="8"/>
       <c r="H161" s="242"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="269"/>
       <c r="C162" s="269"/>
@@ -8681,7 +8673,7 @@
       <c r="G162" s="8"/>
       <c r="H162" s="242"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="269"/>
       <c r="C163" s="269"/>
@@ -8691,7 +8683,7 @@
       <c r="G163" s="8"/>
       <c r="H163" s="242"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="269"/>
       <c r="C164" s="269"/>
@@ -8701,7 +8693,7 @@
       <c r="G164" s="8"/>
       <c r="H164" s="242"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="269"/>
       <c r="C165" s="269"/>
@@ -8711,7 +8703,7 @@
       <c r="G165" s="8"/>
       <c r="H165" s="242"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="269"/>
       <c r="C166" s="269"/>
@@ -8721,7 +8713,7 @@
       <c r="G166" s="8"/>
       <c r="H166" s="242"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="269"/>
       <c r="C167" s="269"/>
@@ -8731,7 +8723,7 @@
       <c r="G167" s="8"/>
       <c r="H167" s="242"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="269"/>
       <c r="C168" s="269"/>
@@ -8741,7 +8733,7 @@
       <c r="G168" s="8"/>
       <c r="H168" s="242"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="269"/>
       <c r="C169" s="269"/>
@@ -8751,7 +8743,7 @@
       <c r="G169" s="8"/>
       <c r="H169" s="242"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="269"/>
       <c r="C170" s="269"/>
@@ -8761,7 +8753,7 @@
       <c r="G170" s="8"/>
       <c r="H170" s="242"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="269"/>
       <c r="C171" s="269"/>
@@ -8771,7 +8763,7 @@
       <c r="G171" s="8"/>
       <c r="H171" s="242"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="269"/>
       <c r="C172" s="269"/>
@@ -8781,7 +8773,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="242"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="242"/>
       <c r="C173" s="242"/>
@@ -8791,7 +8783,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="242"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="242"/>
       <c r="C174" s="242"/>
@@ -8801,7 +8793,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="242"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="242"/>
       <c r="C175" s="242"/>
@@ -8811,7 +8803,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="242"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="242"/>
       <c r="C176" s="242"/>
@@ -8821,7 +8813,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="242"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="242"/>
       <c r="C177" s="242"/>
@@ -8831,7 +8823,7 @@
       <c r="G177" s="8"/>
       <c r="H177" s="242"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="242"/>
       <c r="C178" s="242"/>
@@ -8841,7 +8833,7 @@
       <c r="G178" s="8"/>
       <c r="H178" s="242"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="242"/>
       <c r="C179" s="242"/>
@@ -8851,7 +8843,7 @@
       <c r="G179" s="8"/>
       <c r="H179" s="242"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="242"/>
       <c r="C180" s="242"/>
@@ -8861,7 +8853,7 @@
       <c r="G180" s="8"/>
       <c r="H180" s="242"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="242"/>
       <c r="C181" s="242"/>
@@ -8871,7 +8863,7 @@
       <c r="G181" s="8"/>
       <c r="H181" s="242"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="242"/>
       <c r="C182" s="242"/>
@@ -8881,7 +8873,7 @@
       <c r="G182" s="8"/>
       <c r="H182" s="242"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="242"/>
       <c r="C183" s="242"/>
@@ -8891,7 +8883,7 @@
       <c r="G183" s="8"/>
       <c r="H183" s="242"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="242"/>
       <c r="C184" s="242"/>
@@ -8901,7 +8893,7 @@
       <c r="G184" s="8"/>
       <c r="H184" s="242"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="242"/>
       <c r="C185" s="242"/>
@@ -8911,7 +8903,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="242"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="242"/>
       <c r="C186" s="242"/>
@@ -8921,7 +8913,7 @@
       <c r="G186" s="8"/>
       <c r="H186" s="242"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="242"/>
       <c r="C187" s="242"/>
@@ -8931,7 +8923,7 @@
       <c r="G187" s="8"/>
       <c r="H187" s="242"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="242"/>
       <c r="C188" s="242"/>
@@ -8941,7 +8933,7 @@
       <c r="G188" s="8"/>
       <c r="H188" s="242"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="242"/>
       <c r="C189" s="242"/>
@@ -8951,7 +8943,7 @@
       <c r="G189" s="8"/>
       <c r="H189" s="242"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="242"/>
       <c r="C190" s="242"/>
@@ -8961,7 +8953,7 @@
       <c r="G190" s="8"/>
       <c r="H190" s="242"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="242"/>
       <c r="C191" s="242"/>
@@ -8971,7 +8963,7 @@
       <c r="G191" s="8"/>
       <c r="H191" s="242"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="242"/>
       <c r="C192" s="242"/>
@@ -8981,7 +8973,7 @@
       <c r="G192" s="8"/>
       <c r="H192" s="242"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="242"/>
       <c r="C193" s="242"/>
@@ -8991,7 +8983,7 @@
       <c r="G193" s="8"/>
       <c r="H193" s="242"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="242"/>
       <c r="C194" s="242"/>
@@ -9001,7 +8993,7 @@
       <c r="G194" s="8"/>
       <c r="H194" s="242"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="242"/>
       <c r="C195" s="242"/>
@@ -9011,7 +9003,7 @@
       <c r="G195" s="8"/>
       <c r="H195" s="242"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="242"/>
       <c r="C196" s="242"/>
@@ -9021,7 +9013,7 @@
       <c r="G196" s="8"/>
       <c r="H196" s="242"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="242"/>
       <c r="C197" s="242"/>
@@ -9031,7 +9023,7 @@
       <c r="G197" s="8"/>
       <c r="H197" s="242"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="242"/>
       <c r="C198" s="242"/>
@@ -9041,7 +9033,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="242"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="242"/>
       <c r="C199" s="242"/>
@@ -9051,7 +9043,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="242"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="242"/>
       <c r="C200" s="242"/>
@@ -9061,7 +9053,7 @@
       <c r="G200" s="8"/>
       <c r="H200" s="242"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="242"/>
       <c r="C201" s="242"/>
@@ -9071,7 +9063,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="242"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="242"/>
       <c r="C202" s="242"/>
@@ -9081,7 +9073,7 @@
       <c r="G202" s="8"/>
       <c r="H202" s="242"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="242"/>
       <c r="C203" s="242"/>
@@ -9091,7 +9083,7 @@
       <c r="G203" s="8"/>
       <c r="H203" s="242"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="242"/>
       <c r="C204" s="242"/>
@@ -9101,7 +9093,7 @@
       <c r="G204" s="8"/>
       <c r="H204" s="242"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="242"/>
       <c r="C205" s="242"/>
@@ -9111,7 +9103,7 @@
       <c r="G205" s="8"/>
       <c r="H205" s="242"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="242"/>
       <c r="C206" s="242"/>
@@ -9121,7 +9113,7 @@
       <c r="G206" s="8"/>
       <c r="H206" s="242"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="242"/>
       <c r="C207" s="242"/>
@@ -9131,7 +9123,7 @@
       <c r="G207" s="8"/>
       <c r="H207" s="242"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="242"/>
       <c r="C208" s="242"/>
@@ -9141,7 +9133,7 @@
       <c r="G208" s="8"/>
       <c r="H208" s="242"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="242"/>
       <c r="C209" s="242"/>
@@ -9151,7 +9143,7 @@
       <c r="G209" s="8"/>
       <c r="H209" s="242"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="242"/>
       <c r="C210" s="242"/>
@@ -9161,7 +9153,7 @@
       <c r="G210" s="8"/>
       <c r="H210" s="242"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="242"/>
       <c r="C211" s="242"/>
@@ -9171,7 +9163,7 @@
       <c r="G211" s="8"/>
       <c r="H211" s="242"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="242"/>
       <c r="C212" s="242"/>
@@ -9181,7 +9173,7 @@
       <c r="G212" s="8"/>
       <c r="H212" s="242"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="242"/>
       <c r="C213" s="242"/>
@@ -9191,7 +9183,7 @@
       <c r="G213" s="8"/>
       <c r="H213" s="242"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="242"/>
       <c r="C214" s="242"/>
@@ -9201,7 +9193,7 @@
       <c r="G214" s="8"/>
       <c r="H214" s="242"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="242"/>
       <c r="C215" s="242"/>
@@ -9211,7 +9203,7 @@
       <c r="G215" s="8"/>
       <c r="H215" s="242"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="242"/>
       <c r="C216" s="242"/>
@@ -9221,7 +9213,7 @@
       <c r="G216" s="8"/>
       <c r="H216" s="242"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="242"/>
       <c r="C217" s="242"/>
@@ -9231,7 +9223,7 @@
       <c r="G217" s="8"/>
       <c r="H217" s="242"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="242"/>
       <c r="C218" s="242"/>
@@ -9241,7 +9233,7 @@
       <c r="G218" s="8"/>
       <c r="H218" s="242"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="242"/>
       <c r="C219" s="242"/>
@@ -9251,7 +9243,7 @@
       <c r="G219" s="8"/>
       <c r="H219" s="242"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="242"/>
       <c r="C220" s="242"/>
@@ -9261,7 +9253,7 @@
       <c r="G220" s="8"/>
       <c r="H220" s="242"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="242"/>
       <c r="C221" s="242"/>
@@ -9271,7 +9263,7 @@
       <c r="G221" s="8"/>
       <c r="H221" s="242"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="242"/>
       <c r="C222" s="242"/>
@@ -9281,7 +9273,7 @@
       <c r="G222" s="8"/>
       <c r="H222" s="242"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="242"/>
       <c r="C223" s="242"/>
@@ -9291,7 +9283,7 @@
       <c r="G223" s="8"/>
       <c r="H223" s="242"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="242"/>
       <c r="C224" s="242"/>
@@ -9326,54 +9318,54 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="192.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="192.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="391" t="s">
+      <c r="B1" s="387" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="391"/>
-      <c r="D1" s="392"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="388"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="393" t="s">
+      <c r="B2" s="389" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="394"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="390"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="240"/>
       <c r="C3" s="240"/>
       <c r="D3" s="240"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
         <v>499</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>390</v>
       </c>
@@ -9402,7 +9394,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="280" t="s">
         <v>87</v>
       </c>
@@ -9431,17 +9423,17 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="389" t="s">
+      <c r="B7" s="385" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="395" t="s">
+      <c r="C7" s="391" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="397" t="s">
+      <c r="D7" s="393" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="246" t="s">
@@ -9453,20 +9445,20 @@
       <c r="G7" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="386" t="s">
+      <c r="H7" s="396" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="385" t="s">
+      <c r="I7" s="395" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="390"/>
-      <c r="C8" s="396"/>
-      <c r="D8" s="398"/>
+      <c r="B8" s="386"/>
+      <c r="C8" s="392"/>
+      <c r="D8" s="394"/>
       <c r="E8" s="246" t="s">
         <v>415</v>
       </c>
@@ -9476,10 +9468,10 @@
       <c r="G8" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="H8" s="386"/>
-      <c r="I8" s="385"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="396"/>
+      <c r="I8" s="395"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="277" t="s">
         <v>8</v>
       </c>
@@ -9506,7 +9498,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="281" t="s">
         <v>90</v>
       </c>
@@ -9535,7 +9527,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="277" t="s">
         <v>91</v>
       </c>
@@ -9564,7 +9556,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="277" t="s">
         <v>92</v>
       </c>
@@ -9593,7 +9585,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>10</v>
       </c>
@@ -9606,13 +9598,13 @@
       <c r="D13" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="387" t="s">
+      <c r="E13" s="397" t="s">
         <v>415</v>
       </c>
-      <c r="F13" s="387">
+      <c r="F13" s="397">
         <v>128</v>
       </c>
-      <c r="G13" s="387" t="s">
+      <c r="G13" s="397" t="s">
         <v>420</v>
       </c>
       <c r="H13" s="228" t="s">
@@ -9622,7 +9614,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>148</v>
       </c>
@@ -9635,9 +9627,9 @@
       <c r="D14" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="387"/>
-      <c r="F14" s="387"/>
-      <c r="G14" s="387"/>
+      <c r="E14" s="397"/>
+      <c r="F14" s="397"/>
+      <c r="G14" s="397"/>
       <c r="H14" s="228" t="s">
         <v>405</v>
       </c>
@@ -9645,7 +9637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>93</v>
       </c>
@@ -9658,9 +9650,9 @@
       <c r="D15" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="388"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="388"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="398"/>
       <c r="H15" s="237" t="s">
         <v>405</v>
       </c>
@@ -9677,17 +9669,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9704,16 +9696,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="227" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.5" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="227" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -9726,7 +9718,7 @@
       <c r="C1" s="399"/>
       <c r="D1" s="400"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>8</v>
       </c>
@@ -9736,20 +9728,20 @@
       <c r="C2" s="402"/>
       <c r="D2" s="403"/>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="339"/>
       <c r="B3" s="340"/>
       <c r="C3" s="341"/>
       <c r="D3" s="341"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
         <v>499</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>390</v>
       </c>
@@ -9778,7 +9770,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="277" t="s">
         <v>94</v>
       </c>
@@ -9807,7 +9799,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="277" t="s">
         <v>95</v>
       </c>
@@ -9836,7 +9828,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>96</v>
       </c>
@@ -9865,7 +9857,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>66</v>
       </c>
@@ -9894,7 +9886,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="277" t="s">
         <v>97</v>
       </c>
@@ -9923,7 +9915,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>98</v>
       </c>
@@ -9952,7 +9944,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>99</v>
       </c>
@@ -9981,7 +9973,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="277" t="s">
         <v>100</v>
       </c>
@@ -10010,7 +10002,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>101</v>
       </c>
@@ -10039,7 +10031,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>102</v>
       </c>
@@ -10066,7 +10058,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>105</v>
       </c>
@@ -10095,7 +10087,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>70</v>
       </c>
@@ -10124,7 +10116,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>106</v>
       </c>
@@ -10147,7 +10139,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -10161,7 +10153,7 @@
       <c r="E20" s="227"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="220" t="s">
         <v>396</v>
       </c>
@@ -10173,7 +10165,7 @@
       <c r="E21" s="251"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="14"/>
       <c r="C22" s="21"/>
@@ -10210,7 +10202,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>9</v>
       </c>
@@ -10233,7 +10225,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>103</v>
       </c>
@@ -10256,7 +10248,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>104</v>
       </c>
@@ -10279,7 +10271,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G31" s="25"/>
       <c r="H31" s="242"/>
     </row>
@@ -10305,15 +10297,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="85.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="85.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -10325,7 +10317,7 @@
       </c>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>112</v>
       </c>
@@ -10334,7 +10326,7 @@
       </c>
       <c r="C2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="E3" s="375" t="s">
         <v>499</v>
@@ -10342,7 +10334,7 @@
       <c r="F3" s="376"/>
       <c r="G3" s="377"/>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>390</v>
       </c>
@@ -10371,7 +10363,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="277" t="s">
         <v>0</v>
       </c>
@@ -10400,7 +10392,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="277" t="s">
         <v>64</v>
       </c>
@@ -10429,7 +10421,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="277" t="s">
         <v>66</v>
       </c>
@@ -10458,7 +10450,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="277" t="s">
         <v>65</v>
       </c>
@@ -10487,7 +10479,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="277" t="s">
         <v>67</v>
       </c>
@@ -10514,7 +10506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="315" t="s">
         <v>157</v>
       </c>
@@ -10543,7 +10535,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="10"/>
       <c r="C11" s="100"/>
@@ -10553,7 +10545,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="39"/>
       <c r="C12" s="100"/>
@@ -10590,15 +10582,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="227" customWidth="1"/>
-    <col min="9" max="9" width="111.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="227" customWidth="1"/>
+    <col min="9" max="9" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -10610,7 +10602,7 @@
       </c>
       <c r="C1" s="34"/>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>113</v>
       </c>
@@ -10619,7 +10611,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -10632,7 +10624,7 @@
       <c r="H3" s="242"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>390</v>
       </c>
@@ -10661,7 +10653,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="277" t="s">
         <v>0</v>
       </c>
@@ -10690,7 +10682,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="277" t="s">
         <v>64</v>
       </c>
@@ -10719,7 +10711,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>66</v>
       </c>
@@ -10748,7 +10740,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="277" t="s">
         <v>68</v>
       </c>
@@ -10777,7 +10769,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="277" t="s">
         <v>69</v>
       </c>
@@ -10804,7 +10796,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>70</v>
       </c>
@@ -10833,7 +10825,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>71</v>
       </c>
@@ -10862,7 +10854,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>67</v>
       </c>
@@ -10889,7 +10881,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>72</v>
       </c>
@@ -10916,7 +10908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="315" t="s">
         <v>76</v>
       </c>
@@ -10969,17 +10961,17 @@
       <selection pane="topRight" activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="227" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="101.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="227" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="101.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10997,20 +10989,20 @@
       </c>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="393" t="s">
+      <c r="B2" s="389" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
       <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="240"/>
       <c r="C3" s="240"/>
@@ -11019,7 +11011,7 @@
       <c r="F3" s="8"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -11032,7 +11024,7 @@
       <c r="H4" s="242"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>390</v>
       </c>
@@ -11067,7 +11059,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="277" t="s">
         <v>0</v>
       </c>
@@ -11103,7 +11095,7 @@
         <v>Serialnumber OR Station code + channel</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="277" t="s">
         <v>73</v>
       </c>
@@ -11136,7 +11128,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="277" t="s">
         <v>66</v>
       </c>
@@ -11171,7 +11163,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="277" t="s">
         <v>74</v>
       </c>
@@ -11204,7 +11196,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="277" t="s">
         <v>75</v>
       </c>
@@ -11237,7 +11229,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="277" t="s">
         <v>76</v>
       </c>
@@ -11270,7 +11262,7 @@
       </c>
       <c r="K11" s="282"/>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>77</v>
       </c>
@@ -11305,7 +11297,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>78</v>
       </c>
@@ -11328,7 +11320,7 @@
       </c>
       <c r="K13" s="282"/>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="277" t="s">
         <v>79</v>
       </c>
@@ -11363,7 +11355,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="70" t="s">
         <v>80</v>
       </c>
@@ -11396,7 +11388,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
         <v>81</v>
       </c>
@@ -11419,7 +11411,7 @@
       <c r="J16" s="227"/>
       <c r="K16" s="282"/>
     </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A17" s="128" t="s">
         <v>82</v>
       </c>
@@ -11452,7 +11444,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A18" s="128" t="s">
         <v>83</v>
       </c>
@@ -11485,7 +11477,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A19" s="70" t="s">
         <v>84</v>
       </c>
@@ -11516,7 +11508,7 @@
       <c r="J19" s="227"/>
       <c r="K19" s="282"/>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A20" s="70" t="s">
         <v>85</v>
       </c>
@@ -11539,7 +11531,7 @@
       <c r="J20" s="227"/>
       <c r="K20" s="282"/>
     </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A21" s="128" t="s">
         <v>82</v>
       </c>
@@ -11574,7 +11566,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A22" s="128" t="s">
         <v>83</v>
       </c>
@@ -11609,7 +11601,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A23" s="70" t="s">
         <v>86</v>
       </c>
@@ -11640,7 +11632,7 @@
       <c r="J23" s="227"/>
       <c r="K23" s="282"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>327</v>
       </c>
@@ -11673,7 +11665,7 @@
       </c>
       <c r="K24" s="282"/>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>328</v>
       </c>
@@ -11702,7 +11694,7 @@
       <c r="J25" s="227"/>
       <c r="K25" s="282"/>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>101</v>
       </c>
@@ -11735,7 +11727,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>330</v>
       </c>
@@ -11766,7 +11758,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>69</v>
       </c>
@@ -11799,7 +11791,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="98"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -11810,7 +11802,7 @@
       <c r="H29" s="242"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -11821,7 +11813,7 @@
       <c r="H30" s="242"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -11832,7 +11824,7 @@
       <c r="H31" s="239"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -11843,7 +11835,7 @@
       <c r="H32" s="239"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -11854,7 +11846,7 @@
       <c r="H33" s="240"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="190"/>
       <c r="B34" s="190"/>
       <c r="C34" s="190"/>
@@ -11865,7 +11857,7 @@
       <c r="H34" s="241"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="190"/>
       <c r="B35" s="190"/>
       <c r="C35" s="190"/>
@@ -11876,7 +11868,7 @@
       <c r="H35" s="241"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -11887,7 +11879,7 @@
       <c r="H36" s="242"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -11898,28 +11890,28 @@
       <c r="H37" s="242"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G42" s="8"/>
       <c r="H42" s="242"/>
     </row>
@@ -11949,15 +11941,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="227" customWidth="1"/>
-    <col min="9" max="9" width="128.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="227" customWidth="1"/>
+    <col min="9" max="9" width="128.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11974,7 +11966,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="242"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>128</v>
       </c>
@@ -11988,7 +11980,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="242"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -12000,7 +11992,7 @@
       <c r="G3" s="377"/>
       <c r="H3" s="242"/>
     </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="184" t="s">
         <v>390</v>
       </c>
@@ -12030,7 +12022,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="318" t="s">
         <v>117</v>
       </c>
@@ -12061,7 +12053,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="318" t="s">
         <v>118</v>
       </c>
@@ -12089,7 +12081,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="318" t="s">
         <v>56</v>
       </c>
@@ -12119,7 +12111,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="185" t="s">
         <v>198</v>
       </c>
@@ -12149,7 +12141,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="318" t="s">
         <v>119</v>
       </c>
@@ -12177,7 +12169,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="319" t="s">
         <v>120</v>
       </c>
@@ -12206,7 +12198,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="186" t="s">
         <v>121</v>
       </c>
@@ -12235,7 +12227,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="186" t="s">
         <v>122</v>
       </c>
@@ -12264,7 +12256,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="186" t="s">
         <v>123</v>
       </c>
@@ -12293,7 +12285,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="185" t="s">
         <v>124</v>
       </c>
@@ -12320,7 +12312,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="185" t="s">
         <v>200</v>
       </c>
@@ -12349,7 +12341,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="185" t="s">
         <v>201</v>
       </c>
@@ -12376,7 +12368,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A17" s="187" t="s">
         <v>125</v>
       </c>
@@ -12405,7 +12397,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="183" t="s">
         <v>126</v>
       </c>

--- a/docs/EPOS_DCAT-AP_Vocabulary_and_Specification.xlsx
+++ b/docs/EPOS_DCAT-AP_Vocabulary_and_Specification.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="509">
   <si>
     <t>Unique Resource Identifier</t>
   </si>
@@ -1495,9 +1495,6 @@
   </si>
   <si>
     <t>This property contains the main identifier for Person. May be *ORCID for Persons; *Mailto: Literals like mailto:support@institution</t>
-  </si>
-  <si>
-    <t>This property refers to a geographical area related to the data we provide.It's espressed as a poliygon and supports multiple polygons when the data comes from different regions.. Skip elevation when the value is  0.</t>
   </si>
   <si>
     <r>
@@ -1587,6 +1584,12 @@
   </si>
   <si>
     <t>This property refers to the organisation responsible to publish the WebService.</t>
+  </si>
+  <si>
+    <t>This property refers to the subdomain of resource</t>
+  </si>
+  <si>
+    <t>This property refers to a geographical area related to the data we provide.It's espressed as a poliygon .Skip elevation when the value is  0.</t>
   </si>
 </sst>
 </file>
@@ -3991,10 +3994,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4007,6 +4022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4025,19 +4041,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4063,6 +4066,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4092,18 +4107,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4589,10 +4592,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="361" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="359" t="s">
+      <c r="B13" s="363" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="195" t="s">
@@ -4601,20 +4604,20 @@
       <c r="D13" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="361" t="s">
+      <c r="E13" s="365" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="358"/>
-      <c r="B14" s="360"/>
+      <c r="A14" s="367"/>
+      <c r="B14" s="364"/>
       <c r="C14" s="195" t="s">
         <v>370</v>
       </c>
       <c r="D14" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="362"/>
+      <c r="E14" s="366"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="205" t="s">
@@ -4702,10 +4705,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="367" t="s">
+      <c r="A20" s="372" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="365" t="s">
+      <c r="B20" s="370" t="s">
         <v>241</v>
       </c>
       <c r="C20" s="202" t="s">
@@ -4719,16 +4722,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="368"/>
-      <c r="B21" s="369"/>
+      <c r="A21" s="373"/>
+      <c r="B21" s="374"/>
       <c r="C21" s="355" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D21" s="200" t="s">
         <v>374</v>
       </c>
       <c r="E21" s="356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
@@ -4766,10 +4769,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="363" t="s">
+      <c r="A24" s="368" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="365" t="s">
+      <c r="B24" s="370" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="198" t="s">
@@ -4783,8 +4786,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="364"/>
-      <c r="B25" s="366"/>
+      <c r="A25" s="369"/>
+      <c r="B25" s="371"/>
       <c r="C25" s="198" t="s">
         <v>374</v>
       </c>
@@ -4796,10 +4799,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="357" t="s">
+      <c r="A26" s="361" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="359" t="s">
+      <c r="B26" s="363" t="s">
         <v>315</v>
       </c>
       <c r="C26" s="198" t="s">
@@ -4808,20 +4811,20 @@
       <c r="D26" s="200" t="s">
         <v>374</v>
       </c>
-      <c r="E26" s="361" t="s">
+      <c r="E26" s="365" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="374"/>
-      <c r="B27" s="360"/>
+      <c r="A27" s="362"/>
+      <c r="B27" s="364"/>
       <c r="C27" s="198" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="203" t="s">
         <v>374</v>
       </c>
-      <c r="E27" s="362"/>
+      <c r="E27" s="366"/>
     </row>
     <row r="28" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A28" s="208" t="s">
@@ -4961,10 +4964,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="372" t="s">
+      <c r="A38" s="359" t="s">
         <v>408</v>
       </c>
-      <c r="B38" s="370" t="s">
+      <c r="B38" s="357" t="s">
         <v>398</v>
       </c>
       <c r="C38" s="258" t="s">
@@ -4976,8 +4979,8 @@
       <c r="E38" s="259"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="373"/>
-      <c r="B39" s="371"/>
+      <c r="A39" s="360"/>
+      <c r="B39" s="358"/>
       <c r="C39" s="213" t="s">
         <v>370</v>
       </c>
@@ -4988,11 +4991,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
@@ -5000,6 +4998,11 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5389,7 +5392,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
@@ -5408,7 +5411,7 @@
         <v>194</v>
       </c>
       <c r="E5" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="337" t="s">
         <v>413</v>
@@ -6007,7 +6010,7 @@
         <v>404</v>
       </c>
       <c r="I27" s="257" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
@@ -6030,7 +6033,7 @@
         <v>404</v>
       </c>
       <c r="I28" s="257" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6053,7 +6056,7 @@
         <v>405</v>
       </c>
       <c r="I29" s="253" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6536,8 +6539,8 @@
   </sheetPr>
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,7 +6586,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
@@ -6602,7 +6605,7 @@
         <v>474</v>
       </c>
       <c r="E5" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="337" t="s">
         <v>413</v>
@@ -6796,7 +6799,7 @@
         <v>131</v>
       </c>
       <c r="B12" s="226" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" s="225" t="s">
         <v>370</v>
@@ -6871,7 +6874,7 @@
         <v>405</v>
       </c>
       <c r="I14" s="257" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6900,7 +6903,7 @@
         <v>405</v>
       </c>
       <c r="I15" s="346" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6929,7 +6932,7 @@
         <v>405</v>
       </c>
       <c r="I16" s="346" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,7 +7019,7 @@
         <v>404</v>
       </c>
       <c r="I19" s="257" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
@@ -7039,7 +7042,7 @@
         <v>404</v>
       </c>
       <c r="I20" s="257" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
@@ -7062,7 +7065,7 @@
         <v>404</v>
       </c>
       <c r="I21" s="257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7091,7 +7094,7 @@
         <v>404</v>
       </c>
       <c r="I22" s="257" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7154,10 +7157,10 @@
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="243" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" s="223" t="s">
         <v>494</v>
-      </c>
-      <c r="B25" s="223" t="s">
-        <v>495</v>
       </c>
       <c r="C25" s="225" t="s">
         <v>370</v>
@@ -7172,15 +7175,15 @@
         <v>407</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="243" t="s">
+        <v>490</v>
+      </c>
+      <c r="B26" s="223" t="s">
         <v>491</v>
-      </c>
-      <c r="B26" s="223" t="s">
-        <v>492</v>
       </c>
       <c r="C26" s="225" t="s">
         <v>370</v>
@@ -7195,7 +7198,7 @@
         <v>405</v>
       </c>
       <c r="I26" s="346" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7291,7 +7294,7 @@
         <v>404</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7316,7 +7319,7 @@
         <v>407</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7339,7 +7342,7 @@
         <v>405</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7362,7 +7365,7 @@
         <v>405</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9333,22 +9336,22 @@
       <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="387" t="s">
+      <c r="B1" s="391" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="387"/>
-      <c r="D1" s="388"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="392"/>
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="393" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="389"/>
-      <c r="D2" s="390"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="394"/>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -9360,7 +9363,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
@@ -9379,7 +9382,7 @@
         <v>194</v>
       </c>
       <c r="E5" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="337" t="s">
         <v>413</v>
@@ -9427,13 +9430,13 @@
       <c r="A7" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="385" t="s">
+      <c r="B7" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="391" t="s">
+      <c r="C7" s="395" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="393" t="s">
+      <c r="D7" s="397" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="246" t="s">
@@ -9445,10 +9448,10 @@
       <c r="G7" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="396" t="s">
+      <c r="H7" s="386" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="395" t="s">
+      <c r="I7" s="385" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9456,9 +9459,9 @@
       <c r="A8" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="386"/>
-      <c r="C8" s="392"/>
-      <c r="D8" s="394"/>
+      <c r="B8" s="390"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="398"/>
       <c r="E8" s="246" t="s">
         <v>415</v>
       </c>
@@ -9468,8 +9471,8 @@
       <c r="G8" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="H8" s="396"/>
-      <c r="I8" s="395"/>
+      <c r="H8" s="386"/>
+      <c r="I8" s="385"/>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="277" t="s">
@@ -9598,13 +9601,13 @@
       <c r="D13" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="397" t="s">
+      <c r="E13" s="387" t="s">
         <v>415</v>
       </c>
-      <c r="F13" s="397">
+      <c r="F13" s="387">
         <v>128</v>
       </c>
-      <c r="G13" s="397" t="s">
+      <c r="G13" s="387" t="s">
         <v>420</v>
       </c>
       <c r="H13" s="228" t="s">
@@ -9627,9 +9630,9 @@
       <c r="D14" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="397"/>
-      <c r="F14" s="397"/>
-      <c r="G14" s="397"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="387"/>
+      <c r="G14" s="387"/>
       <c r="H14" s="228" t="s">
         <v>405</v>
       </c>
@@ -9650,9 +9653,9 @@
       <c r="D15" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="398"/>
-      <c r="F15" s="398"/>
-      <c r="G15" s="398"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="388"/>
       <c r="H15" s="237" t="s">
         <v>405</v>
       </c>
@@ -9669,17 +9672,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9736,7 +9739,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
@@ -9755,7 +9758,7 @@
         <v>194</v>
       </c>
       <c r="E5" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="337" t="s">
         <v>413</v>
@@ -10329,7 +10332,7 @@
     <row r="3" spans="1:11" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="E3" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F3" s="376"/>
       <c r="G3" s="377"/>
@@ -10348,7 +10351,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F4" s="337" t="s">
         <v>413</v>
@@ -10617,7 +10620,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F3" s="376"/>
       <c r="G3" s="377"/>
@@ -10638,7 +10641,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F4" s="337" t="s">
         <v>413</v>
@@ -10993,11 +10996,11 @@
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="393" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
       <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="H2"/>
@@ -11017,7 +11020,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="376"/>
       <c r="G4" s="377"/>
@@ -11038,7 +11041,7 @@
         <v>194</v>
       </c>
       <c r="E5" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="337" t="s">
         <v>413</v>
@@ -11986,7 +11989,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="375" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F3" s="376"/>
       <c r="G3" s="377"/>
@@ -12006,7 +12009,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F4" s="337" t="s">
         <v>413</v>

--- a/docs/EPOS_DCAT-AP_Vocabulary_and_Specification.xlsx
+++ b/docs/EPOS_DCAT-AP_Vocabulary_and_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="24555" yWindow="3555" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="24555" yWindow="3555" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entity&amp;Properties&amp;Roles" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="497">
   <si>
     <t>Unique Resource Identifier</t>
   </si>
@@ -850,9 +850,6 @@
     <t>DCAT-AP ENTITY</t>
   </si>
   <si>
-    <t>This property contains the main identifier for the WebService, e.g. the URI or other unique identifier</t>
-  </si>
-  <si>
     <t>This property contains a free-text account of the WebService. This property can be repeated for parallel language versions of the description.</t>
   </si>
   <si>
@@ -862,21 +859,12 @@
     <t>This property links  a WebService to relevant contact information which is provided using Vcard:Individual</t>
   </si>
   <si>
-    <t>This property refers to information that indicates whether the WebService is open data, has access restrictions or is not public</t>
-  </si>
-  <si>
-    <t>This property defines the link(s) to the resource and/or the link to additional information about the resource</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
     <t>dcat:theme</t>
   </si>
   <si>
-    <t>This property contains the name of the parameter</t>
-  </si>
-  <si>
     <t>This property contains the version of the parameter</t>
   </si>
   <si>
@@ -1408,9 +1396,6 @@
     <t>This property refers to a temporal period that the data covers by WS</t>
   </si>
   <si>
-    <t>This property refers to the licence of the service.</t>
-  </si>
-  <si>
     <t>RANGE</t>
   </si>
   <si>
@@ -1441,9 +1426,6 @@
     <t>This property contains the main identifier for Person. May be *ORCID for Persons; *Mailto: Literals like mailto:support@institution</t>
   </si>
   <si>
-    <t>This property refers to an implementing rule or other specification example like EPSG:4326</t>
-  </si>
-  <si>
     <t>This property contains a list of operations comma-separated controlled by vocabulary list of terms/actions</t>
   </si>
   <si>
@@ -1471,9 +1453,6 @@
     <t>This document refers the document human readable (e.g. PDF, doc, and so on). This will help a user who, for instance, does not understand something from the hints/label of the parameters.</t>
   </si>
   <si>
-    <t>It's a new attribute with a short string to help the user.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data type </t>
   </si>
   <si>
@@ -1504,9 +1483,6 @@
     <t>This property contains the main identifier for Organisation. (PIC Partecipant Identification Code )</t>
   </si>
   <si>
-    <t xml:space="preserve">This property contains vocabulary terms </t>
-  </si>
-  <si>
     <t>This property refers to the type of the Organisation.</t>
   </si>
   <si>
@@ -1517,6 +1493,33 @@
   </si>
   <si>
     <t xml:space="preserve">EPOS Property </t>
+  </si>
+  <si>
+    <t>This property refers to the licence of the service. Whenever possible, you should use URIs for licences. A register of standard licences is available at:http://publications.europa.eu/mdr/resource/authority/licence/html/licences-eng.html</t>
+  </si>
+  <si>
+    <t>This property refers to information that indicates whether the WebService is open data, has access restrictions or is not public. There a codelist for this, so you can check if it is suitable to you.The description is here:http://publications.europa.eu/mdr/resource/authority/access-right/html/access-right-eng.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property refers to an implementing rule or other specification.(e.g. EPSG:4326)The CRS should be specified with the relevant URI.The base URI is http://www.opengis.net/def/crs/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property contains the unique identifier for the WebService: this is the entry point of the service, e.g. the URI or other unique identifier </t>
+  </si>
+  <si>
+    <t>This field allows you to specify all the information needed to query the web service.</t>
+  </si>
+  <si>
+    <t>This property contains the name of the parameter as required by web service specifications</t>
+  </si>
+  <si>
+    <t>It's a new attribute with a short string used to describe the meaning of the parameter to the GUI user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property contains one of the possible value which should be used in the web service query; it could be repeated as many times as needed. </t>
+  </si>
+  <si>
+    <t>This property contains the URL of the web service without parameters.</t>
   </si>
 </sst>
 </file>
@@ -4011,101 +4014,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4171,18 +4080,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4190,15 +4087,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4257,28 +4145,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -4299,6 +4169,139 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
@@ -4652,10 +4655,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B1" s="126" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4663,7 +4666,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4671,7 +4674,7 @@
         <v>135</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4679,7 +4682,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
@@ -4687,7 +4690,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4695,7 +4698,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4719,19 +4722,19 @@
         <v>128</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B12" s="127" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D12" s="127" t="s">
         <v>194</v>
@@ -4748,10 +4751,10 @@
         <v>130</v>
       </c>
       <c r="C13" s="270" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E13" s="213" t="s">
         <v>271</v>
@@ -4765,13 +4768,13 @@
         <v>204</v>
       </c>
       <c r="C14" s="271" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4779,16 +4782,16 @@
         <v>99</v>
       </c>
       <c r="B15" s="212" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C15" s="271" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E15" s="115" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4799,13 +4802,13 @@
         <v>151</v>
       </c>
       <c r="C16" s="271" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4813,16 +4816,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C17" s="271" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E17" s="115" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4833,43 +4836,43 @@
         <v>169</v>
       </c>
       <c r="C18" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="115" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="379" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="366" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="D18" s="108" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="115" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="282" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="280" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>372</v>
-      </c>
-      <c r="E19" s="115" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="283"/>
-      <c r="B20" s="284"/>
+      <c r="A20" s="380"/>
+      <c r="B20" s="381"/>
       <c r="C20" s="209" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E20" s="210" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4880,13 +4883,13 @@
         <v>172</v>
       </c>
       <c r="C21" s="112" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E21" s="115" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4897,20 +4900,20 @@
         <v>176</v>
       </c>
       <c r="C22" s="270" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D22" s="110" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E22" s="115" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="278" t="s">
+      <c r="A23" s="376" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="366" t="s">
         <v>152</v>
       </c>
       <c r="C23" s="271" t="s">
@@ -4920,49 +4923,49 @@
         <v>162</v>
       </c>
       <c r="E23" s="115" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="279"/>
-      <c r="B24" s="281"/>
+      <c r="A24" s="377"/>
+      <c r="B24" s="378"/>
       <c r="C24" s="271" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E24" s="115" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="291" t="s">
+      <c r="A25" s="370" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="293" t="s">
-        <v>315</v>
+      <c r="B25" s="372" t="s">
+        <v>311</v>
       </c>
       <c r="C25" s="271" t="s">
         <v>161</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>374</v>
-      </c>
-      <c r="E25" s="276" t="s">
-        <v>388</v>
+        <v>370</v>
+      </c>
+      <c r="E25" s="374" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="292"/>
-      <c r="B26" s="294"/>
+      <c r="A26" s="371"/>
+      <c r="B26" s="373"/>
       <c r="C26" s="271" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="113" t="s">
-        <v>374</v>
-      </c>
-      <c r="E26" s="277"/>
+        <v>370</v>
+      </c>
+      <c r="E26" s="375"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="117" t="s">
@@ -4972,38 +4975,38 @@
         <v>153</v>
       </c>
       <c r="C27" s="271" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D27" s="113" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E27" s="115" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B28" s="258" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D28" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E28" s="151" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="120" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B29" s="272" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C29" s="273" t="s">
         <v>162</v>
@@ -5012,19 +5015,19 @@
         <v>161</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="106" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B32" s="216" t="s">
         <v>134</v>
       </c>
       <c r="C32" s="217" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D32" s="107" t="s">
         <v>194</v>
@@ -5047,7 +5050,7 @@
         <v>197</v>
       </c>
       <c r="E33" s="118" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5061,10 +5064,10 @@
         <v>162</v>
       </c>
       <c r="D34" s="123" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E34" s="124" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5081,7 +5084,7 @@
         <v>197</v>
       </c>
       <c r="E35" s="119" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5095,10 +5098,10 @@
         <v>162</v>
       </c>
       <c r="D36" s="123" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E36" s="124" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5115,18 +5118,18 @@
         <v>197</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="289" t="s">
-        <v>408</v>
-      </c>
-      <c r="B38" s="280" t="s">
-        <v>398</v>
+      <c r="A38" s="368" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" s="366" t="s">
+        <v>394</v>
       </c>
       <c r="C38" s="154" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D38" s="110" t="s">
         <v>197</v>
@@ -5134,10 +5137,10 @@
       <c r="E38" s="155"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="290"/>
-      <c r="B39" s="288"/>
+      <c r="A39" s="369"/>
+      <c r="B39" s="367"/>
       <c r="C39" s="154" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D39" s="267" t="s">
         <v>197</v>
@@ -5145,11 +5148,11 @@
       <c r="E39" s="269"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="286" t="s">
-        <v>446</v>
-      </c>
-      <c r="B40" s="285" t="s">
-        <v>447</v>
+      <c r="A40" s="364" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" s="363" t="s">
+        <v>443</v>
       </c>
       <c r="C40" s="266" t="s">
         <v>132</v>
@@ -5158,52 +5161,52 @@
         <v>30</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="287"/>
-      <c r="B41" s="285"/>
+      <c r="A41" s="365"/>
+      <c r="B41" s="363"/>
       <c r="C41" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D41" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="264" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B42" s="265" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C42" s="228" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D42" s="229" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="260" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5562,64 +5565,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="320" t="s">
-        <v>338</v>
-      </c>
-      <c r="C1" s="323"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="332"/>
+      <c r="A1" s="296" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="286" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="298"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="322" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="323"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="332"/>
+      <c r="B2" s="288" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="298"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="323"/>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="340"/>
+      <c r="A3" s="289"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="306"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="324"/>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
+      <c r="A4" s="290"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
       <c r="E4" s="274"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
-        <v>495</v>
-      </c>
-      <c r="B5" s="328" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="341" t="s">
+      <c r="A5" s="296" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="294" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="307" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="342" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="348" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="349" t="s">
+      <c r="D5" s="308" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="314" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="315" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5633,14 +5636,14 @@
       <c r="C6" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="343" t="s">
+      <c r="D6" s="309" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="184" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>243</v>
@@ -5660,10 +5663,10 @@
         <v>30</v>
       </c>
       <c r="E7" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="184" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>244</v>
@@ -5683,10 +5686,10 @@
         <v>30</v>
       </c>
       <c r="E8" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="184" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>245</v>
@@ -5706,10 +5709,10 @@
         <v>199</v>
       </c>
       <c r="E9" s="214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F9" s="184" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>258</v>
@@ -5729,10 +5732,10 @@
         <v>199</v>
       </c>
       <c r="E10" s="214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F10" s="184" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>259</v>
@@ -5752,10 +5755,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G11" s="52" t="s">
         <v>266</v>
@@ -5774,9 +5777,9 @@
       <c r="D12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="344"/>
+      <c r="E12" s="310"/>
       <c r="F12" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G12" s="52" t="s">
         <v>252</v>
@@ -5795,9 +5798,9 @@
       <c r="D13" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="344"/>
+      <c r="E13" s="310"/>
       <c r="F13" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G13" s="52" t="s">
         <v>254</v>
@@ -5807,7 +5810,7 @@
       <c r="A14" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="345" t="s">
+      <c r="B14" s="311" t="s">
         <v>210</v>
       </c>
       <c r="C14" s="77" t="s">
@@ -5816,9 +5819,9 @@
       <c r="D14" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="344"/>
+      <c r="E14" s="310"/>
       <c r="F14" s="133" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>255</v>
@@ -5837,16 +5840,16 @@
       <c r="D15" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="344"/>
+      <c r="E15" s="310"/>
       <c r="F15" s="234" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="346" t="s">
+      <c r="A16" s="312" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="261" t="s">
@@ -5858,9 +5861,9 @@
       <c r="D16" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="347"/>
+      <c r="E16" s="313"/>
       <c r="F16" s="133" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>247</v>
@@ -5879,9 +5882,9 @@
       <c r="D17" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="344"/>
+      <c r="E17" s="310"/>
       <c r="F17" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>253</v>
@@ -5901,13 +5904,13 @@
         <v>29</v>
       </c>
       <c r="E18" s="214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F18" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G18" s="200" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5924,10 +5927,10 @@
         <v>31</v>
       </c>
       <c r="E19" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F19" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>248</v>
@@ -5935,10 +5938,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="172" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>132</v>
@@ -5946,20 +5949,20 @@
       <c r="D20" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="344"/>
+      <c r="E20" s="310"/>
       <c r="F20" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G20" s="153" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="172" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>132</v>
@@ -5967,12 +5970,12 @@
       <c r="D21" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="344"/>
+      <c r="E21" s="310"/>
       <c r="F21" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G21" s="153" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5983,16 +5986,16 @@
         <v>207</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D22" s="88" t="s">
         <v>199</v>
       </c>
       <c r="E22" s="214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F22" s="184" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G22" s="52" t="s">
         <v>263</v>
@@ -6006,14 +6009,14 @@
         <v>33</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="344"/>
+      <c r="E23" s="310"/>
       <c r="F23" s="133" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G23" s="52" t="s">
         <v>250</v>
@@ -6023,20 +6026,20 @@
       <c r="A24" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="345" t="s">
+      <c r="B24" s="311" t="s">
         <v>226</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>197</v>
       </c>
       <c r="E24" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F24" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>270</v>
@@ -6053,13 +6056,13 @@
         <v>132</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E25" s="169" t="s">
         <v>116</v>
       </c>
       <c r="F25" s="184" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G25" s="52" t="s">
         <v>268</v>
@@ -6073,16 +6076,16 @@
         <v>130</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E26" s="169" t="s">
         <v>116</v>
       </c>
       <c r="F26" s="184" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G26" s="52" t="s">
         <v>271</v>
@@ -6097,16 +6100,16 @@
         <v>227</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D27" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F27" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G27" s="52" t="s">
         <v>265</v>
@@ -6120,16 +6123,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D28" s="183" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F28" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G28" s="52" t="s">
         <v>246</v>
@@ -6137,23 +6140,23 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B29" s="258" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D29" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E29" s="206"/>
       <c r="F29" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G29" s="151" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6171,7 +6174,7 @@
       </c>
       <c r="E30" s="205"/>
       <c r="F30" s="133" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G30" s="52" t="s">
         <v>251</v>
@@ -6192,7 +6195,7 @@
       </c>
       <c r="E31" s="207"/>
       <c r="F31" s="134" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G31" s="56" t="s">
         <v>256</v>
@@ -6210,20 +6213,20 @@
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E35" s="131"/>
       <c r="F35"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E36" s="131"/>
       <c r="F36"/>
@@ -6249,14 +6252,14 @@
         <v>222</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="165"/>
       <c r="F39" s="142" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G39" s="58" t="s">
         <v>260</v>
@@ -6270,14 +6273,14 @@
         <v>218</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G40" s="52" t="s">
         <v>262</v>
@@ -6291,14 +6294,14 @@
         <v>226</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>197</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G41" s="52" t="s">
         <v>270</v>
@@ -6312,14 +6315,14 @@
         <v>224</v>
       </c>
       <c r="C42" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G42" s="52" t="s">
         <v>267</v>
@@ -6340,7 +6343,7 @@
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G43" s="52" t="s">
         <v>261</v>
@@ -6361,7 +6364,7 @@
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G44" s="52" t="s">
         <v>249</v>
@@ -6386,14 +6389,14 @@
         <v>219</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>199</v>
       </c>
       <c r="E46" s="167"/>
       <c r="F46" s="132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G46" s="52" t="s">
         <v>264</v>
@@ -6414,7 +6417,7 @@
       </c>
       <c r="E47" s="168"/>
       <c r="F47" s="141" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G47" s="56" t="s">
         <v>269</v>
@@ -6569,8 +6572,8 @@
   </sheetPr>
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6581,29 +6584,29 @@
     <col min="4" max="4" width="21.85546875" style="131" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="131" customWidth="1"/>
-    <col min="7" max="7" width="134.140625" customWidth="1"/>
+    <col min="7" max="7" width="150.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="350" t="s">
+      <c r="A1" s="296" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="384" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="350"/>
-      <c r="D1" s="351"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="352" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="353"/>
+      <c r="B2" s="386" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="386"/>
+      <c r="D2" s="387"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6617,25 +6620,25 @@
       <c r="E4" s="218"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="354" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="355" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="356" t="s">
+      <c r="A5" s="316" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="317" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="318" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="355" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="357" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="349" t="s">
+      <c r="D5" s="317" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="319" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="315" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6649,17 +6652,17 @@
       <c r="C6" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="358" t="s">
+      <c r="D6" s="320" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G6" s="201" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6676,13 +6679,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G7" s="201" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6699,18 +6702,18 @@
         <v>199</v>
       </c>
       <c r="E8" s="149" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F8" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G8" s="201" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="230" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>220</v>
@@ -6722,13 +6725,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="149" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F9" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G9" s="201" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6745,18 +6748,18 @@
         <v>30</v>
       </c>
       <c r="E10" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F10" s="235" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G10" s="201" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="147" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>142</v>
@@ -6768,13 +6771,13 @@
         <v>36</v>
       </c>
       <c r="E11" s="149" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F11" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G11" s="201" t="s">
-        <v>278</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6791,13 +6794,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F12" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G12" s="201" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6805,7 +6808,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C13" s="129" t="s">
         <v>141</v>
@@ -6814,13 +6817,13 @@
         <v>38</v>
       </c>
       <c r="E13" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F13" s="235" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G13" s="201" t="s">
-        <v>277</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6837,13 +6840,13 @@
         <v>54</v>
       </c>
       <c r="E14" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F14" s="235" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G14" s="201" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,19 +6857,19 @@
         <v>205</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D15" s="87" t="s">
         <v>203</v>
       </c>
       <c r="E15" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F15" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G15" s="201" t="s">
-        <v>273</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6877,63 +6880,63 @@
         <v>219</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D16" s="86" t="s">
         <v>199</v>
       </c>
       <c r="E16" s="149" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F16" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G16" s="201" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="147" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C17" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D17" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F17" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G17" s="201" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="147" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C18" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D18" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="149"/>
       <c r="F18" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G18" s="201" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6944,79 +6947,81 @@
         <v>210</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D19" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F19" s="235" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="201" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="147" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D20" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="149"/>
       <c r="F20" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G20" s="201" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="147" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D21" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="149"/>
       <c r="F21" s="235" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G21" s="201" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="147" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C22" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D22" s="204"/>
       <c r="E22" s="149"/>
       <c r="F22" s="235" t="s">
-        <v>407</v>
-      </c>
-      <c r="G22" s="201"/>
+        <v>403</v>
+      </c>
+      <c r="G22" s="201" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="197" t="s">
@@ -7033,31 +7038,31 @@
       </c>
       <c r="E23" s="208"/>
       <c r="F23" s="236" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G23" s="201" t="s">
-        <v>281</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="197" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C24" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D24" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="208"/>
       <c r="F24" s="236" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G24" s="201" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7068,19 +7073,19 @@
         <v>28</v>
       </c>
       <c r="C25" s="219" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D25" s="86" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F25" s="236" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G25" s="201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7098,52 +7103,52 @@
       </c>
       <c r="E26" s="208"/>
       <c r="F26" s="236" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G26" s="200" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="197" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C27" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D27" s="204" t="s">
         <v>197</v>
       </c>
       <c r="E27" s="208"/>
       <c r="F27" s="236" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G27" s="200" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="197" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C28" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D28" s="204" t="s">
         <v>197</v>
       </c>
       <c r="E28" s="208"/>
       <c r="F28" s="236" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G28" s="200" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7154,40 +7159,40 @@
         <v>218</v>
       </c>
       <c r="C29" s="223" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D29" s="224" t="s">
         <v>197</v>
       </c>
       <c r="E29" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F29" s="237" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G29" s="200" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="220" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B30" s="158" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C30" s="222" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D30" s="225" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="149"/>
       <c r="F30" s="235" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G30" s="200" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7201,16 +7206,16 @@
         <v>223</v>
       </c>
       <c r="D31" s="226" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E31" s="160" t="s">
         <v>116</v>
       </c>
       <c r="F31" s="235" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G31" s="201" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7218,22 +7223,22 @@
         <v>131</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C32" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="226" t="s">
         <v>370</v>
-      </c>
-      <c r="D32" s="226" t="s">
-        <v>374</v>
       </c>
       <c r="E32" s="160" t="s">
         <v>116</v>
       </c>
       <c r="F32" s="235" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G32" s="201" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,19 +7249,19 @@
         <v>208</v>
       </c>
       <c r="C33" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D33" s="204" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F33" s="235" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G33" s="201" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7267,19 +7272,19 @@
         <v>26</v>
       </c>
       <c r="C34" s="129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D34" s="204" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F34" s="235" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G34" s="201" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7290,19 +7295,19 @@
         <v>209</v>
       </c>
       <c r="C35" s="228" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D35" s="229" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="150" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F35" s="238" t="s">
-        <v>405</v>
-      </c>
-      <c r="G35" s="308" t="s">
-        <v>458</v>
+        <v>401</v>
+      </c>
+      <c r="G35" s="276" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7350,7 +7355,7 @@
       <c r="B41" s="161"/>
       <c r="C41" s="161"/>
       <c r="D41" s="161"/>
-      <c r="E41" s="295"/>
+      <c r="E41" s="382"/>
       <c r="F41" s="145"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7358,7 +7363,7 @@
       <c r="B42" s="161"/>
       <c r="C42" s="161"/>
       <c r="D42" s="161"/>
-      <c r="E42" s="296"/>
+      <c r="E42" s="383"/>
       <c r="F42" s="144"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8819,7 +8824,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8835,69 +8840,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="359" t="s">
+      <c r="B1" s="393" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="359"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="304" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="361"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
+      <c r="B2" s="395" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="395"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="323"/>
+      <c r="A3" s="289"/>
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="203"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="324"/>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
+      <c r="A4" s="290"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
       <c r="E4" s="274"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="328" t="s">
+      <c r="A5" s="296" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="294" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="362" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="328" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="349" t="s">
+      <c r="D5" s="321" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="294" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="315" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8905,37 +8910,37 @@
       <c r="A6" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="391" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="300" t="s">
+      <c r="C6" s="397" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="302" t="s">
+      <c r="D6" s="399" t="s">
         <v>202</v>
       </c>
       <c r="E6" s="214" t="s">
-        <v>412</v>
-      </c>
-      <c r="F6" s="297" t="s">
-        <v>404</v>
-      </c>
-      <c r="G6" s="309" t="s">
-        <v>289</v>
+        <v>408</v>
+      </c>
+      <c r="F6" s="390" t="s">
+        <v>400</v>
+      </c>
+      <c r="G6" s="388" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="303"/>
+      <c r="B7" s="392"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="400"/>
       <c r="E7" s="214" t="s">
-        <v>412</v>
-      </c>
-      <c r="F7" s="297"/>
-      <c r="G7" s="310"/>
+        <v>408</v>
+      </c>
+      <c r="F7" s="390"/>
+      <c r="G7" s="389"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="172" t="s">
@@ -8951,13 +8956,13 @@
         <v>107</v>
       </c>
       <c r="E8" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="252" t="s">
-        <v>405</v>
-      </c>
-      <c r="G8" s="311" t="s">
-        <v>287</v>
+        <v>401</v>
+      </c>
+      <c r="G8" s="277" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8975,10 +8980,10 @@
       </c>
       <c r="E9" s="214"/>
       <c r="F9" s="253" t="s">
-        <v>405</v>
-      </c>
-      <c r="G9" s="311" t="s">
-        <v>285</v>
+        <v>401</v>
+      </c>
+      <c r="G9" s="277" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8996,10 +9001,10 @@
       </c>
       <c r="E10" s="214"/>
       <c r="F10" s="132" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="312" t="s">
-        <v>286</v>
+        <v>401</v>
+      </c>
+      <c r="G10" s="278" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9010,19 +9015,19 @@
         <v>236</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D11" s="88" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="254" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11" s="313" t="s">
-        <v>469</v>
+        <v>400</v>
+      </c>
+      <c r="G11" s="279" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9033,19 +9038,19 @@
         <v>176</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>372</v>
-      </c>
-      <c r="D12" s="343" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="D12" s="309" t="s">
+        <v>370</v>
       </c>
       <c r="E12" s="214" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="255" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12" s="314" t="s">
-        <v>288</v>
+        <v>400</v>
+      </c>
+      <c r="G12" s="280" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9056,19 +9061,19 @@
         <v>145</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F13" s="256" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" s="314" t="s">
-        <v>462</v>
+        <v>400</v>
+      </c>
+      <c r="G13" s="280" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9079,19 +9084,19 @@
         <v>235</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F14" s="256" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="314" t="s">
-        <v>461</v>
+        <v>401</v>
+      </c>
+      <c r="G14" s="280" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9099,7 +9104,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C15" s="85" t="s">
         <v>129</v>
@@ -9109,10 +9114,10 @@
       </c>
       <c r="E15" s="215"/>
       <c r="F15" s="141" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" s="315" t="s">
-        <v>284</v>
+        <v>401</v>
+      </c>
+      <c r="G15" s="281" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9144,7 +9149,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9159,69 +9164,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="359" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="359"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="324"/>
+      <c r="B1" s="393" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="393"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="304" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="361"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="324"/>
+      <c r="B2" s="395" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="395"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="290"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="323"/>
+      <c r="A3" s="289"/>
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="324"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="324"/>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
+      <c r="A4" s="290"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
       <c r="E4" s="274"/>
       <c r="F4" s="148"/>
-      <c r="G4" s="324"/>
+      <c r="G4" s="290"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="364" t="s">
+      <c r="A5" s="296" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="323" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="362" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="365" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="349" t="s">
+      <c r="D5" s="321" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="324" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="315" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9235,17 +9240,17 @@
       <c r="C6" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="343" t="s">
+      <c r="D6" s="309" t="s">
         <v>202</v>
       </c>
       <c r="E6" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="245" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G6" s="199" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9258,17 +9263,17 @@
       <c r="C7" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="343" t="s">
+      <c r="D7" s="309" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="245" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G7" s="199" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9281,17 +9286,17 @@
       <c r="C8" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="343" t="s">
+      <c r="D8" s="309" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="245" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G8" s="199" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9304,17 +9309,17 @@
       <c r="C9" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="343" t="s">
+      <c r="D9" s="309" t="s">
         <v>203</v>
       </c>
       <c r="E9" s="214" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F9" s="245" t="s">
-        <v>407</v>
-      </c>
-      <c r="G9" s="366" t="s">
-        <v>300</v>
+        <v>403</v>
+      </c>
+      <c r="G9" s="325" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9327,40 +9332,40 @@
       <c r="C10" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="343" t="s">
+      <c r="D10" s="309" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="214" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F10" s="245" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="366" t="s">
-        <v>299</v>
+        <v>401</v>
+      </c>
+      <c r="G10" s="325" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="367" t="s">
+      <c r="B11" s="326" t="s">
         <v>236</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="343" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="309" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="245" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G11" s="199" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9371,63 +9376,63 @@
         <v>151</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E12" s="214" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="245" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G12" s="199" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="368" t="s">
-        <v>292</v>
+      <c r="B13" s="327" t="s">
+        <v>288</v>
       </c>
       <c r="C13" s="240" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" s="343" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="309" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="347"/>
+      <c r="E13" s="313"/>
       <c r="F13" s="245" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G13" s="241" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="369" t="s">
+      <c r="A14" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="370" t="s">
+      <c r="B14" s="329" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="239" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="371" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="330" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F14" s="246" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" s="372" t="s">
-        <v>492</v>
+        <v>400</v>
+      </c>
+      <c r="G14" s="331" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9438,19 +9443,19 @@
         <v>204</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E15" s="214" t="s">
         <v>116</v>
       </c>
       <c r="F15" s="245" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G15" s="199" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9458,22 +9463,22 @@
         <v>99</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E16" s="214" t="s">
         <v>116</v>
       </c>
       <c r="F16" s="245" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G16" s="199" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9484,19 +9489,19 @@
         <v>152</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="343" t="s">
-        <v>374</v>
+        <v>370</v>
+      </c>
+      <c r="D17" s="309" t="s">
+        <v>370</v>
       </c>
       <c r="E17" s="169" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="245" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G17" s="199" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9507,112 +9512,112 @@
         <v>153</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="D18" s="373" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="D18" s="332" t="s">
+        <v>371</v>
       </c>
       <c r="E18" s="243" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F18" s="247" t="s">
-        <v>407</v>
-      </c>
-      <c r="G18" s="374" t="s">
-        <v>298</v>
+        <v>403</v>
+      </c>
+      <c r="G18" s="333" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="324"/>
-      <c r="B19" s="324"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="324"/>
+      <c r="A19" s="290"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="290"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="324"/>
-      <c r="B20" s="324"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="324"/>
+      <c r="A20" s="290"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="290"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="324"/>
-      <c r="B21" s="324"/>
-      <c r="C21" s="324"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="324"/>
+      <c r="A21" s="290"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="290"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="324"/>
-      <c r="B22" s="324"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="332"/>
-      <c r="G22" s="324"/>
+      <c r="A22" s="290"/>
+      <c r="B22" s="290"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="290"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="349" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="326"/>
-      <c r="D23" s="324"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="324"/>
-      <c r="G23" s="324"/>
+      <c r="B23" s="315" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="292"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="290"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="125" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="324"/>
-      <c r="G24" s="324"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="377"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="323"/>
+      <c r="C25" s="289"/>
       <c r="D25" s="7"/>
       <c r="E25" s="133"/>
-      <c r="F25" s="324"/>
-      <c r="G25" s="324"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="378" t="s">
-        <v>390</v>
-      </c>
-      <c r="B26" s="379" t="s">
+      <c r="A26" s="337" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="338" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="355" t="s">
+      <c r="C26" s="317" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="355" t="s">
+      <c r="D26" s="317" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="380" t="s">
-        <v>411</v>
-      </c>
-      <c r="F26" s="348" t="s">
-        <v>402</v>
-      </c>
-      <c r="G26" s="349" t="s">
+      <c r="E26" s="339" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="314" t="s">
+        <v>398</v>
+      </c>
+      <c r="G26" s="315" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9620,63 +9625,63 @@
       <c r="A27" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="381" t="s">
+      <c r="B27" s="340" t="s">
         <v>228</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="382" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="341" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="333"/>
+      <c r="E27" s="299"/>
       <c r="F27" s="149" t="s">
-        <v>404</v>
-      </c>
-      <c r="G27" s="372" t="s">
-        <v>302</v>
+        <v>400</v>
+      </c>
+      <c r="G27" s="331" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="383" t="s">
+      <c r="B28" s="342" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="D28" s="382" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="341" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="333"/>
+      <c r="E28" s="299"/>
       <c r="F28" s="149" t="s">
-        <v>407</v>
-      </c>
-      <c r="G28" s="372" t="s">
-        <v>303</v>
+        <v>403</v>
+      </c>
+      <c r="G28" s="331" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="248" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="384" t="s">
+      <c r="B29" s="343" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="385" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="386"/>
+      <c r="E29" s="345"/>
       <c r="F29" s="150" t="s">
-        <v>404</v>
-      </c>
-      <c r="G29" s="387" t="s">
-        <v>304</v>
+        <v>400</v>
+      </c>
+      <c r="G29" s="346" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
@@ -9715,53 +9720,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="320" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="323"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
+      <c r="B1" s="286" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="322" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
+      <c r="B2" s="288" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="291"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="324"/>
-      <c r="B3" s="324"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="327"/>
+      <c r="A3" s="290"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="274"/>
       <c r="F3" s="186"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="330" t="s">
-        <v>390</v>
-      </c>
-      <c r="B4" s="328" t="s">
+      <c r="A4" s="296" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="294" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="328" t="s">
+      <c r="C4" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="328" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="329" t="s">
-        <v>481</v>
+      <c r="D4" s="294" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="295" t="s">
+        <v>474</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>242</v>
@@ -9771,30 +9776,30 @@
       <c r="A5" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="316" t="s">
+      <c r="B5" s="282" t="s">
         <v>236</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D5" s="156" t="s">
         <v>197</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F5" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G5" s="200" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="283" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="156" t="s">
@@ -9804,20 +9809,20 @@
         <v>197</v>
       </c>
       <c r="E6" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G6" s="200" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="317" t="s">
+      <c r="B7" s="283" t="s">
         <v>189</v>
       </c>
       <c r="C7" s="156" t="s">
@@ -9827,13 +9832,13 @@
         <v>197</v>
       </c>
       <c r="E7" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="275" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G7" s="200" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9844,19 +9849,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D8" s="156" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G8" s="200" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9867,42 +9872,42 @@
         <v>224</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D9" s="156" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E9" s="185" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G9" s="200" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="248" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="318" t="s">
+      <c r="B10" s="284" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="319" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="285" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="187" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F10" s="182" t="s">
-        <v>406</v>
-      </c>
-      <c r="G10" s="315" t="s">
-        <v>361</v>
+        <v>402</v>
+      </c>
+      <c r="G10" s="281" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9959,60 +9964,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="320" t="s">
+      <c r="B1" s="286" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="297"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="290"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="287" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="288" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="331"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="324"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="322" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="324"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="290"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="333"/>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
+      <c r="A3" s="299"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
       <c r="E3" s="274"/>
       <c r="F3" s="148"/>
-      <c r="G3" s="326"/>
+      <c r="G3" s="292"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="330" t="s">
-        <v>390</v>
-      </c>
-      <c r="B4" s="334" t="s">
+      <c r="A4" s="296" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="300" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="328" t="s">
+      <c r="C4" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="328" t="s">
+      <c r="D4" s="294" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" s="335" t="s">
-        <v>402</v>
-      </c>
-      <c r="G4" s="320" t="s">
+      <c r="E4" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="301" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="286" t="s">
         <v>242</v>
       </c>
     </row>
@@ -10030,13 +10035,13 @@
         <v>27</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F5" s="275" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5" s="336" t="s">
-        <v>311</v>
+        <v>400</v>
+      </c>
+      <c r="G5" s="302" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10053,13 +10058,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="275" t="s">
-        <v>404</v>
-      </c>
-      <c r="G6" s="336" t="s">
-        <v>312</v>
+        <v>400</v>
+      </c>
+      <c r="G6" s="302" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10072,17 +10077,17 @@
       <c r="C7" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="303" t="s">
         <v>197</v>
       </c>
       <c r="E7" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="275" t="s">
-        <v>406</v>
-      </c>
-      <c r="G7" s="336" t="s">
-        <v>313</v>
+        <v>402</v>
+      </c>
+      <c r="G7" s="302" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10099,13 +10104,13 @@
         <v>107</v>
       </c>
       <c r="E8" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="275" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" s="336" t="s">
-        <v>306</v>
+        <v>400</v>
+      </c>
+      <c r="G8" s="302" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10113,22 +10118,22 @@
         <v>69</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>161</v>
       </c>
       <c r="D9" s="156" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E9" s="185" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="275" t="s">
-        <v>404</v>
-      </c>
-      <c r="G9" s="336" t="s">
-        <v>316</v>
+        <v>400</v>
+      </c>
+      <c r="G9" s="302" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10145,13 +10150,13 @@
         <v>36</v>
       </c>
       <c r="E10" s="185" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F10" s="275" t="s">
-        <v>407</v>
-      </c>
-      <c r="G10" s="336" t="s">
-        <v>314</v>
+        <v>403</v>
+      </c>
+      <c r="G10" s="302" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10159,22 +10164,22 @@
         <v>71</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="337" t="s">
+      <c r="D11" s="303" t="s">
         <v>197</v>
       </c>
       <c r="E11" s="152" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="275" t="s">
-        <v>407</v>
-      </c>
-      <c r="G11" s="338" t="s">
-        <v>317</v>
+        <v>403</v>
+      </c>
+      <c r="G11" s="304" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10188,16 +10193,16 @@
         <v>161</v>
       </c>
       <c r="D12" s="156" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E12" s="185" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="275" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12" s="336" t="s">
-        <v>309</v>
+        <v>400</v>
+      </c>
+      <c r="G12" s="302" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -10205,22 +10210,22 @@
         <v>72</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>161</v>
       </c>
       <c r="D13" s="156" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E13" s="185" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="275" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" s="336" t="s">
-        <v>308</v>
+        <v>400</v>
+      </c>
+      <c r="G13" s="302" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10233,17 +10238,17 @@
       <c r="C14" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="319" t="s">
+      <c r="D14" s="285" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="187" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F14" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" s="339" t="s">
-        <v>318</v>
+        <v>400</v>
+      </c>
+      <c r="G14" s="305" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10281,78 +10286,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="388" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="389" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
+      <c r="B1" s="401" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="347" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="304" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
+      <c r="B2" s="395" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="323"/>
+      <c r="A3" s="289"/>
       <c r="B3" s="203"/>
       <c r="C3" s="203"/>
       <c r="D3" s="203"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="333"/>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
+      <c r="A4" s="299"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="274"/>
       <c r="F4" s="148"/>
-      <c r="G4" s="326"/>
+      <c r="G4" s="292"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="364" t="s">
+      <c r="A5" s="296" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="323" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="390" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="335" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="349" t="s">
+      <c r="D5" s="348" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="301" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="315" t="s">
         <v>242</v>
       </c>
       <c r="H5" s="181" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I5" s="180" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10369,16 +10374,16 @@
         <v>197</v>
       </c>
       <c r="E6" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G6" s="200" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H6" s="131" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I6" s="173" t="str">
         <f>"Serialnumber OR Station code + channel"</f>
@@ -10389,8 +10394,8 @@
       <c r="A7" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="383" t="s">
-        <v>321</v>
+      <c r="B7" s="342" t="s">
+        <v>317</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>162</v>
@@ -10399,24 +10404,24 @@
         <v>197</v>
       </c>
       <c r="E7" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G7" s="200" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H7" s="131"/>
       <c r="I7" s="173" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="383" t="s">
+      <c r="B8" s="342" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="68" t="s">
@@ -10426,54 +10431,54 @@
         <v>197</v>
       </c>
       <c r="E8" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G8" s="200" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H8" s="174" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I8" s="175" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="383" t="s">
-        <v>324</v>
+      <c r="B9" s="342" t="s">
+        <v>320</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>162</v>
       </c>
       <c r="D9" s="156" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E9" s="185" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F9" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G9" s="200" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H9" s="131"/>
       <c r="I9" s="173" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="383" t="s">
-        <v>326</v>
+      <c r="B10" s="342" t="s">
+        <v>322</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>162</v>
@@ -10482,24 +10487,24 @@
         <v>197</v>
       </c>
       <c r="E10" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F10" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G10" s="201" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H10" s="131"/>
       <c r="I10" s="173" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="383" t="s">
+      <c r="B11" s="342" t="s">
         <v>171</v>
       </c>
       <c r="C11" s="68" t="s">
@@ -10509,16 +10514,16 @@
         <v>197</v>
       </c>
       <c r="E11" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G11" s="200" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H11" s="131" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I11" s="173"/>
     </row>
@@ -10526,45 +10531,45 @@
       <c r="A12" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="391" t="s">
+      <c r="B12" s="404" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="306" t="s">
+      <c r="C12" s="406" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="392" t="s">
+      <c r="D12" s="408" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="185" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" s="305" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="393" t="s">
-        <v>320</v>
+        <v>415</v>
+      </c>
+      <c r="F12" s="403" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" s="402" t="s">
+        <v>316</v>
       </c>
       <c r="H12" s="131" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I12" s="173" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="394"/>
-      <c r="C13" s="307"/>
-      <c r="D13" s="395"/>
+      <c r="B13" s="405"/>
+      <c r="C13" s="407"/>
+      <c r="D13" s="409"/>
       <c r="E13" s="185" t="s">
-        <v>419</v>
-      </c>
-      <c r="F13" s="305"/>
-      <c r="G13" s="393"/>
+        <v>415</v>
+      </c>
+      <c r="F13" s="403"/>
+      <c r="G13" s="402"/>
       <c r="H13" s="131" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I13" s="173"/>
     </row>
@@ -10572,7 +10577,7 @@
       <c r="A14" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="383" t="s">
+      <c r="B14" s="342" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -10582,19 +10587,19 @@
         <v>197</v>
       </c>
       <c r="E14" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F14" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G14" s="200" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H14" s="176" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I14" s="177" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10611,17 +10616,17 @@
         <v>197</v>
       </c>
       <c r="E15" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F15" s="275" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G15" s="200" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H15" s="131"/>
       <c r="I15" s="173" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10637,47 +10642,47 @@
       <c r="D16" s="156"/>
       <c r="E16" s="185"/>
       <c r="F16" s="275" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G16" s="201" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H16" s="131"/>
       <c r="I16" s="173"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="396" t="s">
+      <c r="A17" s="349" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="397" t="s">
-        <v>348</v>
+      <c r="B17" s="350" t="s">
+        <v>344</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="156" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E17" s="185" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F17" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G17" s="201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H17" s="131"/>
       <c r="I17" s="173" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="396" t="s">
+      <c r="A18" s="349" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="397" t="s">
-        <v>349</v>
+      <c r="B18" s="350" t="s">
+        <v>345</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>162</v>
@@ -10686,17 +10691,17 @@
         <v>197</v>
       </c>
       <c r="E18" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F18" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G18" s="201" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H18" s="131"/>
       <c r="I18" s="173" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10713,13 +10718,13 @@
         <v>197</v>
       </c>
       <c r="E19" s="185" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F19" s="275" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="201" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H19" s="131"/>
       <c r="I19" s="173"/>
@@ -10737,49 +10742,49 @@
       <c r="D20" s="156"/>
       <c r="E20" s="185"/>
       <c r="F20" s="275" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G20" s="201" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H20" s="131"/>
       <c r="I20" s="173"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="396" t="s">
+      <c r="A21" s="349" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="397" t="s">
-        <v>348</v>
+      <c r="B21" s="350" t="s">
+        <v>344</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="156" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E21" s="185" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F21" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G21" s="201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H21" s="131" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I21" s="173" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="396" t="s">
+      <c r="A22" s="349" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="397" t="s">
-        <v>349</v>
+      <c r="B22" s="350" t="s">
+        <v>345</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>162</v>
@@ -10788,19 +10793,19 @@
         <v>197</v>
       </c>
       <c r="E22" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F22" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G22" s="201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H22" s="131" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I22" s="173" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10817,23 +10822,23 @@
         <v>197</v>
       </c>
       <c r="E23" s="185" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F23" s="275" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G23" s="201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H23" s="131"/>
       <c r="I23" s="173"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="172" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" s="383" t="s">
-        <v>292</v>
+        <v>323</v>
+      </c>
+      <c r="B24" s="342" t="s">
+        <v>288</v>
       </c>
       <c r="C24" s="68" t="s">
         <v>162</v>
@@ -10842,25 +10847,25 @@
         <v>29</v>
       </c>
       <c r="E24" s="185" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F24" s="275" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G24" s="201" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H24" s="146" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I24" s="173"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="172" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>162</v>
@@ -10872,10 +10877,10 @@
         <v>113</v>
       </c>
       <c r="F25" s="275" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G25" s="199" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H25" s="131"/>
       <c r="I25" s="173"/>
@@ -10897,39 +10902,39 @@
         <v>115</v>
       </c>
       <c r="F26" s="275" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G26" s="199" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H26" s="131" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I26" s="173" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="172" t="s">
-        <v>330</v>
-      </c>
-      <c r="B27" s="383" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="342" t="s">
         <v>224</v>
       </c>
       <c r="C27" s="68" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="156" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E27" s="185" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="275" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G27" s="200" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H27" s="131"/>
       <c r="I27" s="173" t="s">
@@ -10941,28 +10946,28 @@
         <v>69</v>
       </c>
       <c r="B28" s="242" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C28" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="319" t="s">
-        <v>374</v>
+      <c r="D28" s="285" t="s">
+        <v>370</v>
       </c>
       <c r="E28" s="187" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G28" s="315" t="s">
-        <v>316</v>
+        <v>400</v>
+      </c>
+      <c r="G28" s="281" t="s">
+        <v>312</v>
       </c>
       <c r="H28" s="178" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I28" s="179" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -11091,8 +11096,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:G18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11107,60 +11112,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="320" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="398"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="324"/>
+      <c r="B1" s="286" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="351"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="287" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="322" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="399"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="324"/>
+      <c r="B2" s="288" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="352"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="290"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="333"/>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
+      <c r="A3" s="299"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
       <c r="E3" s="274"/>
       <c r="F3" s="148"/>
-      <c r="G3" s="324"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="400" t="s">
-        <v>390</v>
-      </c>
-      <c r="B4" s="355" t="s">
+      <c r="A4" s="353" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="317" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="355" t="s">
+      <c r="C4" s="317" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="401" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="329" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" s="335" t="s">
-        <v>402</v>
-      </c>
-      <c r="G4" s="320" t="s">
+      <c r="D4" s="354" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="295" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="301" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="286" t="s">
         <v>242</v>
       </c>
       <c r="H4" s="5"/>
@@ -11172,20 +11177,20 @@
       <c r="B5" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="402" t="s">
-        <v>339</v>
+      <c r="C5" s="355" t="s">
+        <v>335</v>
       </c>
       <c r="D5" s="95" t="s">
         <v>197</v>
       </c>
       <c r="E5" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F5" s="184" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5" s="336" t="s">
-        <v>340</v>
+        <v>400</v>
+      </c>
+      <c r="G5" s="302" t="s">
+        <v>336</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -11197,20 +11202,20 @@
       <c r="B6" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="403" t="s">
-        <v>339</v>
+      <c r="C6" s="356" t="s">
+        <v>335</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E6" s="132" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="184" t="s">
-        <v>406</v>
-      </c>
-      <c r="G6" s="336" t="s">
-        <v>342</v>
+        <v>402</v>
+      </c>
+      <c r="G6" s="302" t="s">
+        <v>338</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -11221,44 +11226,44 @@
       <c r="B7" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="404" t="s">
-        <v>339</v>
+      <c r="C7" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D7" s="96" t="s">
         <v>197</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="184" t="s">
-        <v>406</v>
-      </c>
-      <c r="G7" s="336" t="s">
-        <v>354</v>
+        <v>402</v>
+      </c>
+      <c r="G7" s="302" t="s">
+        <v>350</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="405" t="s">
+      <c r="A8" s="358" t="s">
         <v>198</v>
       </c>
       <c r="B8" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="404" t="s">
-        <v>339</v>
+      <c r="C8" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D8" s="96" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" s="184" t="s">
-        <v>405</v>
-      </c>
-      <c r="G8" s="336" t="s">
-        <v>355</v>
+        <v>401</v>
+      </c>
+      <c r="G8" s="302" t="s">
+        <v>351</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -11269,20 +11274,20 @@
       <c r="B9" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="404" t="s">
-        <v>339</v>
+      <c r="C9" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E9" s="132" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="184" t="s">
-        <v>404</v>
-      </c>
-      <c r="G9" s="336" t="s">
-        <v>343</v>
+        <v>400</v>
+      </c>
+      <c r="G9" s="302" t="s">
+        <v>339</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -11293,158 +11298,158 @@
       <c r="B10" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="404" t="s">
-        <v>339</v>
+      <c r="C10" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="132" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F10" s="184" t="s">
-        <v>404</v>
-      </c>
-      <c r="G10" s="336" t="s">
-        <v>350</v>
+        <v>400</v>
+      </c>
+      <c r="G10" s="302" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="406" t="s">
+      <c r="A11" s="359" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="404" t="s">
-        <v>339</v>
+      <c r="C11" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>197</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="184" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="336" t="s">
-        <v>353</v>
+        <v>401</v>
+      </c>
+      <c r="G11" s="302" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="406" t="s">
+      <c r="A12" s="359" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="404" t="s">
-        <v>339</v>
+      <c r="C12" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>197</v>
       </c>
       <c r="E12" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F12" s="184" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="336" t="s">
-        <v>352</v>
+        <v>401</v>
+      </c>
+      <c r="G12" s="302" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="406" t="s">
+      <c r="A13" s="359" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="404" t="s">
-        <v>339</v>
+      <c r="C13" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D13" s="96" t="s">
         <v>197</v>
       </c>
       <c r="E13" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F13" s="184" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="405" t="s">
+      <c r="A14" s="358" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="404" t="s">
-        <v>339</v>
+      <c r="C14" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E14" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F14" s="184" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="405" t="s">
+      <c r="A15" s="358" t="s">
         <v>200</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="404" t="s">
-        <v>339</v>
+      <c r="C15" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D15" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F15" s="184" t="s">
-        <v>407</v>
-      </c>
-      <c r="G15" s="336" t="s">
-        <v>346</v>
+        <v>403</v>
+      </c>
+      <c r="G15" s="302" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="405" t="s">
+      <c r="A16" s="358" t="s">
         <v>201</v>
       </c>
       <c r="B16" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="404" t="s">
-        <v>339</v>
+      <c r="C16" s="357" t="s">
+        <v>335</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E16" s="132" t="s">
         <v>116</v>
       </c>
       <c r="F16" s="184" t="s">
-        <v>407</v>
-      </c>
-      <c r="G16" s="336" t="s">
-        <v>341</v>
+        <v>403</v>
+      </c>
+      <c r="G16" s="302" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -11454,20 +11459,20 @@
       <c r="B17" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="407" t="s">
-        <v>339</v>
+      <c r="C17" s="360" t="s">
+        <v>335</v>
       </c>
       <c r="D17" s="94" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F17" s="184" t="s">
-        <v>407</v>
-      </c>
-      <c r="G17" s="336" t="s">
-        <v>345</v>
+        <v>403</v>
+      </c>
+      <c r="G17" s="302" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11477,20 +11482,20 @@
       <c r="B18" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="408" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="409" t="s">
+      <c r="C18" s="361" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="362" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="148" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F18" s="188" t="s">
-        <v>407</v>
-      </c>
-      <c r="G18" s="339" t="s">
-        <v>344</v>
+        <v>403</v>
+      </c>
+      <c r="G18" s="305" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
